--- a/R/output/iclv/summary.xlsx
+++ b/R/output/iclv/summary.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apricot\src\C001 Work Arrangement MDCEV\R\output\iclv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC13348-8129-4B1A-B9B0-AFD1CB802B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD19D6-E0FB-40B2-8F83-D1700611E1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="24240" activeTab="1" xr2:uid="{D107D1A2-D0F0-4F35-9302-4C0D93DAD2D8}"/>
+    <workbookView xWindow="46125" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D107D1A2-D0F0-4F35-9302-4C0D93DAD2D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Model2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="295">
   <si>
     <t>asc_2</t>
   </si>
@@ -739,6 +740,189 @@
   </si>
   <si>
     <t>Car-dependent</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>b_2_pop_density</t>
+  </si>
+  <si>
+    <t>b_3_pop_density</t>
+  </si>
+  <si>
+    <t>b_4_pop_density</t>
+  </si>
+  <si>
+    <t>b_5_pop_density</t>
+  </si>
+  <si>
+    <t>b_6_pop_density</t>
+  </si>
+  <si>
+    <t>b_2_ret_svc_density</t>
+  </si>
+  <si>
+    <t>b_3_ret_svc_density</t>
+  </si>
+  <si>
+    <t>b_4_ret_svc_density</t>
+  </si>
+  <si>
+    <t>b_5_ret_svc_density</t>
+  </si>
+  <si>
+    <t>b_6_ret_svc_density</t>
+  </si>
+  <si>
+    <t>b_2_transit_freq</t>
+  </si>
+  <si>
+    <t>b_3_transit_freq</t>
+  </si>
+  <si>
+    <t>b_4_transit_freq</t>
+  </si>
+  <si>
+    <t>b_5_transit_freq</t>
+  </si>
+  <si>
+    <t>b_6_transit_freq</t>
+  </si>
+  <si>
+    <t>a_1_age_18_34</t>
+  </si>
+  <si>
+    <t>a_1_age_55plus</t>
+  </si>
+  <si>
+    <t>a_1_income_150plus</t>
+  </si>
+  <si>
+    <t>a_1_kids_kids</t>
+  </si>
+  <si>
+    <t>a_1_education_bachelorplus</t>
+  </si>
+  <si>
+    <t>a_1_impedance_20plus</t>
+  </si>
+  <si>
+    <t>a_1_jobtype12_administrative</t>
+  </si>
+  <si>
+    <t>a_1_neighborhood_nonurban</t>
+  </si>
+  <si>
+    <t>a_1_homeownership_nonown</t>
+  </si>
+  <si>
+    <t>a_2_age_18_34</t>
+  </si>
+  <si>
+    <t>a_2_age_55plus</t>
+  </si>
+  <si>
+    <t>a_2_gender_women</t>
+  </si>
+  <si>
+    <t>a_2_kids_kids</t>
+  </si>
+  <si>
+    <t>a_2_neighborhood_suburban</t>
+  </si>
+  <si>
+    <t>a_2_homeownership_nonown</t>
+  </si>
+  <si>
+    <t>a_3_age_18_34</t>
+  </si>
+  <si>
+    <t>a_3_income_150plus</t>
+  </si>
+  <si>
+    <t>a_3_kids_kids</t>
+  </si>
+  <si>
+    <t>a_3_genderkids_women_kids</t>
+  </si>
+  <si>
+    <t>a_3_education_bachelorplus</t>
+  </si>
+  <si>
+    <t>a_3_neighborhood_suburban</t>
+  </si>
+  <si>
+    <t>a_4_jobtype12_administrative</t>
+  </si>
+  <si>
+    <t>a_4_neighborhood_nonurban</t>
+  </si>
+  <si>
+    <t>a_4_homeownership_nonown</t>
+  </si>
+  <si>
+    <t>a_5_age_18_34</t>
+  </si>
+  <si>
+    <t>a_5_age_55plus</t>
+  </si>
+  <si>
+    <t>a_5_gender_women</t>
+  </si>
+  <si>
+    <t>a_5_income_150plus</t>
+  </si>
+  <si>
+    <t>a_5_education_bachelorplus</t>
+  </si>
+  <si>
+    <t>a_5_impendance_20_39</t>
+  </si>
+  <si>
+    <t>a_5_jobtype12_nonmanual</t>
+  </si>
+  <si>
+    <t>a_5_neighborhood_nonurban</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Pro-enviornment</t>
+  </si>
+  <si>
+    <t>Measurement Model</t>
+  </si>
+  <si>
+    <t>Choice Model</t>
+  </si>
+  <si>
+    <t>Structural Model</t>
+  </si>
+  <si>
+    <t>Built Environment</t>
+  </si>
+  <si>
+    <t>Population density</t>
+  </si>
+  <si>
+    <t>Retail/Service employment density</t>
+  </si>
+  <si>
+    <t>Transit service frequency per capita</t>
+  </si>
+  <si>
+    <t>Bachelor or higher</t>
+  </si>
+  <si>
+    <t>20 or more</t>
+  </si>
+  <si>
+    <t>Non-urban</t>
+  </si>
+  <si>
+    <t>Non-manual-labor</t>
   </si>
 </sst>
 </file>
@@ -769,12 +953,30 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -789,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -803,11 +1005,47 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.499984740745262"/>
@@ -5986,12 +6224,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:G26">
-    <cfRule type="notContainsText" dxfId="7" priority="3" stopIfTrue="1" operator="notContains" text="~*">
+    <cfRule type="notContainsText" dxfId="13" priority="3" stopIfTrue="1" operator="notContains" text="~*">
       <formula>ISERROR(SEARCH("~*",C3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:P25">
-    <cfRule type="notContainsText" dxfId="5" priority="1" stopIfTrue="1" operator="notContains" text="~*">
+    <cfRule type="notContainsText" dxfId="11" priority="1" stopIfTrue="1" operator="notContains" text="~*">
       <formula>ISERROR(SEARCH("~*",K3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6033,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8643C4-AB5E-400F-B5F9-4A1A3DED4773}">
   <dimension ref="A1:AN168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10839,12 +11077,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:G26">
-    <cfRule type="notContainsText" dxfId="3" priority="3" stopIfTrue="1" operator="notContains" text="~*">
+    <cfRule type="notContainsText" dxfId="9" priority="3" stopIfTrue="1" operator="notContains" text="~*">
       <formula>ISERROR(SEARCH("~*",C3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:P25">
-    <cfRule type="notContainsText" dxfId="1" priority="1" stopIfTrue="1" operator="notContains" text="~*">
+    <cfRule type="notContainsText" dxfId="7" priority="1" stopIfTrue="1" operator="notContains" text="~*">
       <formula>ISERROR(SEARCH("~*",K3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10880,4 +11118,6398 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6460B2B-835F-4E76-9E7D-EBEFE896AA9A}">
+  <dimension ref="A1:AN214"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="86.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="S2" t="s">
+        <v>234</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>6</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2">
+        <v>5</v>
+      </c>
+      <c r="AH2">
+        <v>6</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
+      <c r="AL2">
+        <v>4</v>
+      </c>
+      <c r="AM2">
+        <v>5</v>
+      </c>
+      <c r="AN2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:G21" si="0">TEXT(AD3,"0.000")&amp;AJ3</f>
+        <v xml:space="preserve">-1.354 ** </v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-1.687 ***</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-2.412 ***</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-1.236 ** </v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-3.763 ***</v>
+      </c>
+      <c r="I3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f>TEXT(AD31,"0.000")&amp;AJ31</f>
+        <v>0.356 ***</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f>TEXT(AE31,"0.000")&amp;AK31</f>
+        <v>0.932 ***</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>-1.3537392860042901</v>
+      </c>
+      <c r="T3">
+        <v>2.1708503330829701E-2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X3,$R:$R,$S:$S,0),3)</f>
+        <v>-1.3540000000000001</v>
+      </c>
+      <c r="AE3" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y3,$R:$R,$S:$S,0),3)</f>
+        <v>-1.6870000000000001</v>
+      </c>
+      <c r="AF3" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z3,$R:$R,$S:$S,0),3)</f>
+        <v>-2.4119999999999999</v>
+      </c>
+      <c r="AG3" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA3,$R:$R,$S:$S,0),3)</f>
+        <v>-1.236</v>
+      </c>
+      <c r="AH3" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB3,$R:$R,$S:$S,0),3)</f>
+        <v>-3.7629999999999999</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f>IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AK3" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL3" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM3" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AN3" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.178    </v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.463 ** </v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.104    </v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.218    </v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.379    </v>
+      </c>
+      <c r="I4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f>TEXT(AD32,"0.000")&amp;AJ32</f>
+        <v>0.428 ***</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f>TEXT(AE32,"0.000")&amp;AK32</f>
+        <v>0.893 ***</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>-1.6868127399283599</v>
+      </c>
+      <c r="T4" s="1">
+        <v>8.82034063282022E-5</v>
+      </c>
+      <c r="X4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X4,$R:$R,$S:$S,0),3)</f>
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="AE4" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y4,$R:$R,$S:$S,0),3)</f>
+        <v>-0.46300000000000002</v>
+      </c>
+      <c r="AF4" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z4,$R:$R,$S:$S,0),3)</f>
+        <v>-0.104</v>
+      </c>
+      <c r="AG4" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA4,$R:$R,$S:$S,0),3)</f>
+        <v>-0.218</v>
+      </c>
+      <c r="AH4" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB4,$R:$R,$S:$S,0),3)</f>
+        <v>-0.379</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f>IF(_xlfn.XLOOKUP(X4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK4" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL4" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM4" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN4" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.076    </v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.031    </v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.197    </v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.203    </v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.204    </v>
+      </c>
+      <c r="I5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>TEXT(AD33,"0.000")&amp;AJ33</f>
+        <v>0.438 ***</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f>TEXT(AE33,"0.000")&amp;AK33</f>
+        <v>0.895 ***</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>-2.4115209228383701</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1.56282101992921E-6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X5,$R:$R,$S:$S,0),3)</f>
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="AE5" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y5,$R:$R,$S:$S,0),3)</f>
+        <v>-3.1E-2</v>
+      </c>
+      <c r="AF5" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z5,$R:$R,$S:$S,0),3)</f>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AG5" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA5,$R:$R,$S:$S,0),3)</f>
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="AH5" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB5,$R:$R,$S:$S,0),3)</f>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f>IF(_xlfn.XLOOKUP(X5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK5" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL5" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM5" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN5" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.172    </v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.213    </v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.558 ** </v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.195    </v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.241    </v>
+      </c>
+      <c r="I6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f>TEXT(AD34,"0.000")&amp;AJ34</f>
+        <v>0.525 ***</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f>TEXT(AE34,"0.000")&amp;AK34</f>
+        <v>0.835 ***</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>-1.23561682474041</v>
+      </c>
+      <c r="T6">
+        <v>3.7579830400506102E-2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X6,$R:$R,$S:$S,0),3)</f>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AE6" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y6,$R:$R,$S:$S,0),3)</f>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AF6" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z6,$R:$R,$S:$S,0),3)</f>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="AG6" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA6,$R:$R,$S:$S,0),3)</f>
+        <v>-0.19500000000000001</v>
+      </c>
+      <c r="AH6" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB6,$R:$R,$S:$S,0),3)</f>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AJ6" t="str">
+        <f>IF(_xlfn.XLOOKUP(X6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK6" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL6" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AM6" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN6" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.062    </v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.635 ***</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.019    </v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.061    </v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.366    </v>
+      </c>
+      <c r="I7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f>TEXT(AD35,"0.000")&amp;AJ35</f>
+        <v>0.430 ***</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f>TEXT(AE35,"0.000")&amp;AK35</f>
+        <v>0.899 ***</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>-3.7630006387149102</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1.5106921720686701E-5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD7" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X7,$R:$R,$S:$S,0),3)</f>
+        <v>-6.2E-2</v>
+      </c>
+      <c r="AE7" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y7,$R:$R,$S:$S,0),3)</f>
+        <v>-0.63500000000000001</v>
+      </c>
+      <c r="AF7" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z7,$R:$R,$S:$S,0),3)</f>
+        <v>-1.9E-2</v>
+      </c>
+      <c r="AG7" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA7,$R:$R,$S:$S,0),3)</f>
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="AH7" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB7,$R:$R,$S:$S,0),3)</f>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f>IF(_xlfn.XLOOKUP(X7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK7" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL7" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM7" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN7" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.240    </v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.382    </v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000 ***</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.008    </v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.387    </v>
+      </c>
+      <c r="I8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f>TEXT(AD36,"0.000")&amp;AJ36</f>
+        <v>0.819 ***</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f>TEXT(AE36,"0.000")&amp;AK36</f>
+        <v>0.509 ***</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>-0.17792462847246701</v>
+      </c>
+      <c r="T8">
+        <v>0.31618169342317098</v>
+      </c>
+      <c r="X8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X8,$R:$R,$S:$S,0),3)</f>
+        <v>-0.24</v>
+      </c>
+      <c r="AE8" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y8,$R:$R,$S:$S,0),3)</f>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="AF8" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z8,$R:$R,$S:$S,0),3)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA8,$R:$R,$S:$S,0),3)</f>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="AH8" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB8,$R:$R,$S:$S,0),3)</f>
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f>IF(_xlfn.XLOOKUP(X8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK8" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL8" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM8" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN8" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.449    </v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.534 ** </v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.593 *  </v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.587    </v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.774    </v>
+      </c>
+      <c r="I9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f>TEXT(AD37,"0.000")&amp;AJ37</f>
+        <v>0.624 ***</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f>TEXT(AE37,"0.000")&amp;AK37</f>
+        <v>0.758 ***</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>-7.63506472414541E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.42032210444034501</v>
+      </c>
+      <c r="X9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X9,$R:$R,$S:$S,0),3)</f>
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="AE9" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y9,$R:$R,$S:$S,0),3)</f>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AF9" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z9,$R:$R,$S:$S,0),3)</f>
+        <v>-0.59299999999999997</v>
+      </c>
+      <c r="AG9" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA9,$R:$R,$S:$S,0),3)</f>
+        <v>-0.58699999999999997</v>
+      </c>
+      <c r="AH9" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB9,$R:$R,$S:$S,0),3)</f>
+        <v>-0.77400000000000002</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f>IF(_xlfn.XLOOKUP(X9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK9" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL9" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AM9" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN9" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.464    </v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.707 ***</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.057    </v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.216    </v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.430    </v>
+      </c>
+      <c r="I10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f>TEXT(AD38,"0.000")&amp;AJ38</f>
+        <v>0.390 ***</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f>TEXT(AE38,"0.000")&amp;AK38</f>
+        <v>0.918 ***</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>-0.46313699749556397</v>
+      </c>
+      <c r="T10">
+        <v>2.9964416754035699E-2</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X10,$R:$R,$S:$S,0),3)</f>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AE10" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y10,$R:$R,$S:$S,0),3)</f>
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AF10" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z10,$R:$R,$S:$S,0),3)</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AG10" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA10,$R:$R,$S:$S,0),3)</f>
+        <v>0.216</v>
+      </c>
+      <c r="AH10" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB10,$R:$R,$S:$S,0),3)</f>
+        <v>0.43</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f>IF(_xlfn.XLOOKUP(X10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK10" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL10" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM10" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN10" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.077    </v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.808 ***</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.500 ** </v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.234    </v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.325    </v>
+      </c>
+      <c r="I11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f>TEXT(AD39,"0.000")&amp;AJ39</f>
+        <v>-0.545 ***</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f>TEXT(AE39,"0.000")&amp;AK39</f>
+        <v>0.822 ***</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>-3.0793445641489999E-2</v>
+      </c>
+      <c r="T11">
+        <v>0.44183632880323698</v>
+      </c>
+      <c r="X11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X11,$R:$R,$S:$S,0),3)</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AE11" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y11,$R:$R,$S:$S,0),3)</f>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AF11" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z11,$R:$R,$S:$S,0),3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AG11" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA11,$R:$R,$S:$S,0),3)</f>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AH11" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB11,$R:$R,$S:$S,0),3)</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f>IF(_xlfn.XLOOKUP(X11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK11" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL11" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AM11" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN11" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.292    </v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.362 *  </v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.899 ***</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.457    </v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.703 *  </v>
+      </c>
+      <c r="I12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f>TEXT(AD40,"0.000")&amp;AJ40</f>
+        <v>0.566 ***</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f>TEXT(AE40,"0.000")&amp;AK40</f>
+        <v>0.818 ***</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>-0.104191729663913</v>
+      </c>
+      <c r="T12">
+        <v>0.34657006392093798</v>
+      </c>
+      <c r="X12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X12,$R:$R,$S:$S,0),3)</f>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AE12" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y12,$R:$R,$S:$S,0),3)</f>
+        <v>-0.36199999999999999</v>
+      </c>
+      <c r="AF12" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z12,$R:$R,$S:$S,0),3)</f>
+        <v>-0.89900000000000002</v>
+      </c>
+      <c r="AG12" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA12,$R:$R,$S:$S,0),3)</f>
+        <v>-0.45700000000000002</v>
+      </c>
+      <c r="AH12" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB12,$R:$R,$S:$S,0),3)</f>
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f>IF(_xlfn.XLOOKUP(X12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK12" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AL12" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM12" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN12" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.459 *  </v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.454 ** </v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.204    </v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>TEXT(AG13,"0.000")&amp;AM13</f>
+        <v xml:space="preserve">-0.471 *  </v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.407    </v>
+      </c>
+      <c r="I13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f>TEXT(AD41,"0.000")&amp;AJ41</f>
+        <v>-0.352 ***</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f>TEXT(AE41,"0.000")&amp;AK41</f>
+        <v>0.930 ***</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="R13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>0.19688746370601101</v>
+      </c>
+      <c r="T13">
+        <v>0.218088422939471</v>
+      </c>
+      <c r="X13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD13" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X13,$R:$R,$S:$S,0),3)</f>
+        <v>-0.45900000000000002</v>
+      </c>
+      <c r="AE13" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y13,$R:$R,$S:$S,0),3)</f>
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="AF13" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z13,$R:$R,$S:$S,0),3)</f>
+        <v>-0.20399999999999999</v>
+      </c>
+      <c r="AG13" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA13,$R:$R,$S:$S,0),3)</f>
+        <v>-0.47099999999999997</v>
+      </c>
+      <c r="AH13" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB13,$R:$R,$S:$S,0),3)</f>
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f>IF(_xlfn.XLOOKUP(X13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AK13" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL13" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM13" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AN13" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.001    </v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-1.059 ***</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.397 *  </v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.304    </v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.499    </v>
+      </c>
+      <c r="I14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f>TEXT(AD42,"0.000")&amp;AJ42</f>
+        <v>0.485 ***</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f>TEXT(AE42,"0.000")&amp;AK42</f>
+        <v>0.862 ***</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="R14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>-0.21758995216518401</v>
+      </c>
+      <c r="T14">
+        <v>0.29278441351235701</v>
+      </c>
+      <c r="X14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD14" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X14,$R:$R,$S:$S,0),3)</f>
+        <v>-1E-3</v>
+      </c>
+      <c r="AE14" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y14,$R:$R,$S:$S,0),3)</f>
+        <v>-1.0589999999999999</v>
+      </c>
+      <c r="AF14" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z14,$R:$R,$S:$S,0),3)</f>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="AG14" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA14,$R:$R,$S:$S,0),3)</f>
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="AH14" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB14,$R:$R,$S:$S,0),3)</f>
+        <v>0.499</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f>IF(_xlfn.XLOOKUP(X14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK14" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL14" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AM14" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN14" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.266    </v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.623 ** </v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.809 ***</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.281    </v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.434    </v>
+      </c>
+      <c r="I15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f>TEXT(AD43,"0.000")&amp;AJ43</f>
+        <v>0.454 ***</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f>TEXT(AE43,"0.000")&amp;AK43</f>
+        <v>0.879 ***</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="R15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <v>-0.20347439973165399</v>
+      </c>
+      <c r="T15">
+        <v>0.29985711924618003</v>
+      </c>
+      <c r="X15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD15" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X15,$R:$R,$S:$S,0),3)</f>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AE15" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y15,$R:$R,$S:$S,0),3)</f>
+        <v>-0.623</v>
+      </c>
+      <c r="AF15" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z15,$R:$R,$S:$S,0),3)</f>
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="AG15" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA15,$R:$R,$S:$S,0),3)</f>
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="AH15" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB15,$R:$R,$S:$S,0),3)</f>
+        <v>0.434</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f>IF(_xlfn.XLOOKUP(X15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK15" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL15" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM15" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN15" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.733 ** </v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.845 ***</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.362 ***</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.152 ***</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.209 ***</v>
+      </c>
+      <c r="I16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f>TEXT(AD44,"0.000")&amp;AJ44</f>
+        <v>-0.566 ***</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <f>TEXT(AE44,"0.000")&amp;AK44</f>
+        <v>0.806 ***</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16">
+        <v>-0.37884402772235598</v>
+      </c>
+      <c r="T16">
+        <v>0.189849683136352</v>
+      </c>
+      <c r="X16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD16" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X16,$R:$R,$S:$S,0),3)</f>
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AE16" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y16,$R:$R,$S:$S,0),3)</f>
+        <v>1.845</v>
+      </c>
+      <c r="AF16" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z16,$R:$R,$S:$S,0),3)</f>
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="AG16" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA16,$R:$R,$S:$S,0),3)</f>
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="AH16" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB16,$R:$R,$S:$S,0),3)</f>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AJ16" t="str">
+        <f>IF(_xlfn.XLOOKUP(X16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AK16" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL16" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM16" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN16" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.253    </v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.431 ** </v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.640 ***</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.180    </v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.009    </v>
+      </c>
+      <c r="I17" t="s">
+        <v>212</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f>TEXT(AD45,"0.000")&amp;AJ45</f>
+        <v>0.636 ***</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <f>TEXT(AE45,"0.000")&amp;AK45</f>
+        <v>0.765 ***</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <v>0.203997540537704</v>
+      </c>
+      <c r="T17">
+        <v>0.30276054984783002</v>
+      </c>
+      <c r="X17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X17,$R:$R,$S:$S,0),3)</f>
+        <v>-0.253</v>
+      </c>
+      <c r="AE17" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y17,$R:$R,$S:$S,0),3)</f>
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AF17" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z17,$R:$R,$S:$S,0),3)</f>
+        <v>0.64</v>
+      </c>
+      <c r="AG17" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA17,$R:$R,$S:$S,0),3)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AH17" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB17,$R:$R,$S:$S,0),3)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f>IF(_xlfn.XLOOKUP(X17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK17" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL17" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM17" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN17" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.057    </v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.485 *  </v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.196    </v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.327    </v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.210    </v>
+      </c>
+      <c r="I18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f>TEXT(AD46,"0.000")&amp;AJ46</f>
+        <v>0.345 ***</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f>TEXT(AE46,"0.000")&amp;AK46</f>
+        <v>0.932 ***</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <v>0.17190629527117701</v>
+      </c>
+      <c r="T18">
+        <v>0.32129115952215198</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD18" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X18,$R:$R,$S:$S,0),3)</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AE18" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y18,$R:$R,$S:$S,0),3)</f>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AF18" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z18,$R:$R,$S:$S,0),3)</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="AG18" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA18,$R:$R,$S:$S,0),3)</f>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="AH18" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB18,$R:$R,$S:$S,0),3)</f>
+        <v>-0.21</v>
+      </c>
+      <c r="AJ18" t="str">
+        <f>IF(_xlfn.XLOOKUP(X18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK18" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AL18" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM18" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN18" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.266    </v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.468 ***</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.864 ***</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.202    </v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.423    </v>
+      </c>
+      <c r="I19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f>TEXT(AD47,"0.000")&amp;AJ47</f>
+        <v>0.297 ***</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <f>TEXT(AE47,"0.000")&amp;AK47</f>
+        <v>0.953 ***</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19">
+        <v>0.21253752297774001</v>
+      </c>
+      <c r="T19">
+        <v>0.16691315156648201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD19" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X19,$R:$R,$S:$S,0),3)</f>
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="AE19" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y19,$R:$R,$S:$S,0),3)</f>
+        <v>1.468</v>
+      </c>
+      <c r="AF19" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z19,$R:$R,$S:$S,0),3)</f>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AG19" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA19,$R:$R,$S:$S,0),3)</f>
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="AH19" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB19,$R:$R,$S:$S,0),3)</f>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="AJ19" t="str">
+        <f>IF(_xlfn.XLOOKUP(X19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK19" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL19" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM19" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN19" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.786 ** </v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.312 ***</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.776 ** </v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.221    </v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.151    </v>
+      </c>
+      <c r="I20" t="s">
+        <v>215</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f>TEXT(AD48,"0.000")&amp;AJ48</f>
+        <v>0.417 ***</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <f>TEXT(AE48,"0.000")&amp;AK48</f>
+        <v>0.906 ***</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <v>0.55759981769729905</v>
+      </c>
+      <c r="T20">
+        <v>1.11069829131746E-2</v>
+      </c>
+      <c r="X20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD20" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X20,$R:$R,$S:$S,0),3)</f>
+        <v>-0.78600000000000003</v>
+      </c>
+      <c r="AE20" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y20,$R:$R,$S:$S,0),3)</f>
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="AF20" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z20,$R:$R,$S:$S,0),3)</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AG20" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA20,$R:$R,$S:$S,0),3)</f>
+        <v>-0.221</v>
+      </c>
+      <c r="AH20" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB20,$R:$R,$S:$S,0),3)</f>
+        <v>0.151</v>
+      </c>
+      <c r="AJ20" t="str">
+        <f>IF(_xlfn.XLOOKUP(X20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AK20" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL20" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AM20" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN20" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.351    </v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.286    </v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.787 ***</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.004    </v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.053    </v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f>TEXT(AD49,"0.000")&amp;AJ49</f>
+        <v>0.603 ***</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f>TEXT(AE49,"0.000")&amp;AK49</f>
+        <v>0.792 ***</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21">
+        <v>-0.19482885826479501</v>
+      </c>
+      <c r="T21">
+        <v>0.28984537048620501</v>
+      </c>
+      <c r="X21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD21" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X21,$R:$R,$S:$S,0),3)</f>
+        <v>-0.35099999999999998</v>
+      </c>
+      <c r="AE21" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y21,$R:$R,$S:$S,0),3)</f>
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="AF21" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z21,$R:$R,$S:$S,0),3)</f>
+        <v>-0.78700000000000003</v>
+      </c>
+      <c r="AG21" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA21,$R:$R,$S:$S,0),3)</f>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AH21" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB21,$R:$R,$S:$S,0),3)</f>
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="AJ21" t="str">
+        <f>IF(_xlfn.XLOOKUP(X21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK21" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL21" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM21" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN21" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" ref="C22:C29" si="1">TEXT(AD22,"0.000")&amp;AJ22</f>
+        <v xml:space="preserve">-0.007    </v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" ref="D22:D29" si="2">TEXT(AE22,"0.000")&amp;AK22</f>
+        <v xml:space="preserve">0.010 *  </v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" ref="E22:E29" si="3">TEXT(AF22,"0.000")&amp;AL22</f>
+        <v>0.015 ***</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" ref="F22:F29" si="4">TEXT(AG22,"0.000")&amp;AM22</f>
+        <v xml:space="preserve">-0.004    </v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G29" si="5">TEXT(AH22,"0.000")&amp;AN22</f>
+        <v xml:space="preserve">0.007    </v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f>TEXT(AD50,"0.000")&amp;AJ50</f>
+        <v>0.806 ***</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f>TEXT(AE50,"0.000")&amp;AK50</f>
+        <v>0.531 ***</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22">
+        <v>0.24075657131874201</v>
+      </c>
+      <c r="T22">
+        <v>0.30011402776457202</v>
+      </c>
+      <c r="X22" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD22" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X22,$R:$R,$S:$S,0),3)</f>
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AE22" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y22,$R:$R,$S:$S,0),3)</f>
+        <v>0.01</v>
+      </c>
+      <c r="AF22" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z22,$R:$R,$S:$S,0),3)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AG22" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA22,$R:$R,$S:$S,0),3)</f>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AH22" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB22,$R:$R,$S:$S,0),3)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AJ22" t="str">
+        <f>IF(_xlfn.XLOOKUP(X22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK22" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AL22" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM22" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN22" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">-0.004    </v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-0.006    </v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">-0.007 ** </v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">-0.023    </v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">-0.002    </v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f>TEXT(AD51,"0.000")&amp;AJ51</f>
+        <v>0.534 ***</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f>TEXT(AE51,"0.000")&amp;AK51</f>
+        <v>0.840 ***</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="R23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>-6.2313176027574801E-2</v>
+      </c>
+      <c r="T23">
+        <v>0.43822464354311202</v>
+      </c>
+      <c r="X23" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD23" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X23,$R:$R,$S:$S,0),3)</f>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AE23" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y23,$R:$R,$S:$S,0),3)</f>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AF23" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z23,$R:$R,$S:$S,0),3)</f>
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AG23" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA23,$R:$R,$S:$S,0),3)</f>
+        <v>-2.3E-2</v>
+      </c>
+      <c r="AH23" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB23,$R:$R,$S:$S,0),3)</f>
+        <v>-2E-3</v>
+      </c>
+      <c r="AJ23" t="str">
+        <f>IF(_xlfn.XLOOKUP(X23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK23" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL23" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AM23" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN23" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">-0.073    </v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>-26.489 ***</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">1.029 ** </v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1.545 ***</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">-5.320    </v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f>TEXT(AD52,"0.000")&amp;AJ52</f>
+        <v>-0.352 ***</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f>TEXT(AE52,"0.000")&amp;AK52</f>
+        <v>0.930 ***</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="R24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24">
+        <v>-0.63484278376058301</v>
+      </c>
+      <c r="T24">
+        <v>7.7146512337208303E-3</v>
+      </c>
+      <c r="X24" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD24" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X24,$R:$R,$S:$S,0),3)</f>
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="AE24" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y24,$R:$R,$S:$S,0),3)</f>
+        <v>-26.489000000000001</v>
+      </c>
+      <c r="AF24" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z24,$R:$R,$S:$S,0),3)</f>
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="AG24" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA24,$R:$R,$S:$S,0),3)</f>
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="AH24" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB24,$R:$R,$S:$S,0),3)</f>
+        <v>-5.32</v>
+      </c>
+      <c r="AJ24" t="str">
+        <f>IF(_xlfn.XLOOKUP(X24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK24" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL24" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AM24" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN24" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">-0.199    </v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-0.189 *  </v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>-0.361 ***</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">-0.141    </v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.168    </v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f>TEXT(AD53,"0.000")&amp;AJ53</f>
+        <v>0.232 ***</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f>TEXT(AE53,"0.000")&amp;AK53</f>
+        <v>0.971 ***</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="R25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25">
+        <v>-1.9218343705777099E-2</v>
+      </c>
+      <c r="T25">
+        <v>0.473955743647199</v>
+      </c>
+      <c r="X25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD25" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X25,$R:$R,$S:$S,0),3)</f>
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="AE25" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y25,$R:$R,$S:$S,0),3)</f>
+        <v>-0.189</v>
+      </c>
+      <c r="AF25" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z25,$R:$R,$S:$S,0),3)</f>
+        <v>-0.36099999999999999</v>
+      </c>
+      <c r="AG25" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA25,$R:$R,$S:$S,0),3)</f>
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="AH25" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB25,$R:$R,$S:$S,0),3)</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AJ25" t="str">
+        <f>IF(_xlfn.XLOOKUP(X25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK25" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AL25" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM25" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN25" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">0.209    </v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-0.100    </v>
+      </c>
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">0.106    </v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">-0.134    </v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.139    </v>
+      </c>
+      <c r="R26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26">
+        <v>-6.1141111983704699E-2</v>
+      </c>
+      <c r="T26">
+        <v>0.44094989513594401</v>
+      </c>
+      <c r="X26" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD26" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X26,$R:$R,$S:$S,0),3)</f>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AE26" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y26,$R:$R,$S:$S,0),3)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="AF26" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z26,$R:$R,$S:$S,0),3)</f>
+        <v>0.106</v>
+      </c>
+      <c r="AG26" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA26,$R:$R,$S:$S,0),3)</f>
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="AH26" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB26,$R:$R,$S:$S,0),3)</f>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AJ26" t="str">
+        <f>IF(_xlfn.XLOOKUP(X26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK26" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL26" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM26" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN26" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">-0.182    </v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-0.009    </v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">-0.019    </v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">-0.215    </v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">0.183    </v>
+      </c>
+      <c r="R27" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27">
+        <v>0.36597861137631299</v>
+      </c>
+      <c r="T27">
+        <v>0.21690892916218901</v>
+      </c>
+      <c r="X27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD27" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X27,$R:$R,$S:$S,0),3)</f>
+        <v>-0.182</v>
+      </c>
+      <c r="AE27" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y27,$R:$R,$S:$S,0),3)</f>
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="AF27" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z27,$R:$R,$S:$S,0),3)</f>
+        <v>-1.9E-2</v>
+      </c>
+      <c r="AG27" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA27,$R:$R,$S:$S,0),3)</f>
+        <v>-0.215</v>
+      </c>
+      <c r="AH27" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB27,$R:$R,$S:$S,0),3)</f>
+        <v>0.183</v>
+      </c>
+      <c r="AJ27" t="str">
+        <f>IF(_xlfn.XLOOKUP(X27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK27" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL27" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM27" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN27" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">-0.532 ** </v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.512 ***</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>-0.475 ***</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">-0.374 *  </v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">-0.646 ** </v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28">
+        <v>-0.24035439960560001</v>
+      </c>
+      <c r="T28">
+        <v>0.33478511361617702</v>
+      </c>
+      <c r="X28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD28" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X28,$R:$R,$S:$S,0),3)</f>
+        <v>-0.53200000000000003</v>
+      </c>
+      <c r="AE28" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y28,$R:$R,$S:$S,0),3)</f>
+        <v>-0.51200000000000001</v>
+      </c>
+      <c r="AF28" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z28,$R:$R,$S:$S,0),3)</f>
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="AG28" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA28,$R:$R,$S:$S,0),3)</f>
+        <v>-0.374</v>
+      </c>
+      <c r="AH28" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB28,$R:$R,$S:$S,0),3)</f>
+        <v>-0.64600000000000002</v>
+      </c>
+      <c r="AJ28" t="str">
+        <f>IF(_xlfn.XLOOKUP(X28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AK28" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL28" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM28" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AN28" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">0.048    </v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-0.040    </v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">-0.089    </v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">-0.056    </v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">-0.117    </v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29">
+        <v>0.38177592746626499</v>
+      </c>
+      <c r="T29">
+        <v>0.135009395770817</v>
+      </c>
+      <c r="X29" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD29" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X29,$R:$R,$S:$S,0),3)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AE29" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y29,$R:$R,$S:$S,0),3)</f>
+        <v>-0.04</v>
+      </c>
+      <c r="AF29" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Z29,$R:$R,$S:$S,0),3)</f>
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="AG29" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AA29,$R:$R,$S:$S,0),3)</f>
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="AH29" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(AB29,$R:$R,$S:$S,0),3)</f>
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="AJ29" t="str">
+        <f>IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK29" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL29" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM29" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN29" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="R30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30">
+        <v>-8.4311250803069705E-3</v>
+      </c>
+      <c r="T30">
+        <v>0.49404891922590799</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31">
+        <v>-0.38711229438237499</v>
+      </c>
+      <c r="T31">
+        <v>0.28742643071356699</v>
+      </c>
+      <c r="X31" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD31" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X31,$R:$R,$S:$S,0),3)</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AE31" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y31,$R:$R,$S:$S,0),3)</f>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AJ31" t="str">
+        <f>IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK31" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y31,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y31,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y31,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="R32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32">
+        <v>0.44878134438944001</v>
+      </c>
+      <c r="T32">
+        <v>0.13971005493689001</v>
+      </c>
+      <c r="X32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD32" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X32,$R:$R,$S:$S,0),3)</f>
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AE32" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y32,$R:$R,$S:$S,0),3)</f>
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="AJ32" t="str">
+        <f>IF(_xlfn.XLOOKUP(X32,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X32,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X32,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK32" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y32,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y32,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y32,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="R33" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33">
+        <v>0.53443043332731999</v>
+      </c>
+      <c r="T33">
+        <v>2.5678775148888298E-2</v>
+      </c>
+      <c r="X33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD33" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X33,$R:$R,$S:$S,0),3)</f>
+        <v>0.438</v>
+      </c>
+      <c r="AE33" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y33,$R:$R,$S:$S,0),3)</f>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="AJ33" t="str">
+        <f>IF(_xlfn.XLOOKUP(X33,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X33,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X33,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK33" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y33,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y33,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y33,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f>IF(AD57="","",TEXT(AD57,"0.000")&amp;AJ57)</f>
+        <v xml:space="preserve">-0.204 ** </v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" ref="D34:G47" si="6">IF(AE57="","",TEXT(AE57,"0.000")&amp;AK57)</f>
+        <v xml:space="preserve">0.260 ** </v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">0.228 ** </v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>0.233 ***</v>
+      </c>
+      <c r="R34" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34">
+        <v>-0.59315262309617101</v>
+      </c>
+      <c r="T34">
+        <v>9.0166805408363498E-2</v>
+      </c>
+      <c r="X34" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD34" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X34,$R:$R,$S:$S,0),3)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AE34" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y34,$R:$R,$S:$S,0),3)</f>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="AJ34" t="str">
+        <f>IF(_xlfn.XLOOKUP(X34,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X34,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X34,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK34" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y34,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y34,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y34,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" ref="C35:C47" si="7">IF(AD58="","",TEXT(AD58,"0.000")&amp;AJ58)</f>
+        <v>0.465 ***</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.324 ***</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.240 ***</v>
+      </c>
+      <c r="R35" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35">
+        <v>-0.58685787626406904</v>
+      </c>
+      <c r="T35">
+        <v>0.124871280920813</v>
+      </c>
+      <c r="X35" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD35" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X35,$R:$R,$S:$S,0),3)</f>
+        <v>0.43</v>
+      </c>
+      <c r="AE35" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y35,$R:$R,$S:$S,0),3)</f>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AJ35" t="str">
+        <f>IF(_xlfn.XLOOKUP(X35,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X35,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X35,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK35" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y35,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y35,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y35,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.227 ***</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>0.308 ***</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>0.243 ***</v>
+      </c>
+      <c r="R36" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36">
+        <v>-0.77440203850101097</v>
+      </c>
+      <c r="T36">
+        <v>0.123864275089797</v>
+      </c>
+      <c r="X36" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD36" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X36,$R:$R,$S:$S,0),3)</f>
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AE36" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y36,$R:$R,$S:$S,0),3)</f>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="AJ36" t="str">
+        <f>IF(_xlfn.XLOOKUP(X36,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X36,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X36,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK36" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y36,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y36,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y36,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.199 ***</v>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">-0.140 ** </v>
+      </c>
+      <c r="R37" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37">
+        <v>0.46447812703748798</v>
+      </c>
+      <c r="T37">
+        <v>0.11574744216794999</v>
+      </c>
+      <c r="X37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD37" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X37,$R:$R,$S:$S,0),3)</f>
+        <v>0.624</v>
+      </c>
+      <c r="AE37" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y37,$R:$R,$S:$S,0),3)</f>
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AJ37" t="str">
+        <f>IF(_xlfn.XLOOKUP(X37,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X37,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X37,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK37" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y37,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y37,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y37,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>0.356 ***</v>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>0.404 ***</v>
+      </c>
+      <c r="E38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>0.292 ***</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="R38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38">
+        <v>0.70745244627138604</v>
+      </c>
+      <c r="T38">
+        <v>1.46323996126729E-3</v>
+      </c>
+      <c r="X38" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD38" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X38,$R:$R,$S:$S,0),3)</f>
+        <v>0.39</v>
+      </c>
+      <c r="AE38" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y38,$R:$R,$S:$S,0),3)</f>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="AJ38" t="str">
+        <f>IF(_xlfn.XLOOKUP(X38,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X38,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X38,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK38" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y38,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y38,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y38,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.355 ***</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R39" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39">
+        <v>5.72020706461355E-2</v>
+      </c>
+      <c r="T39">
+        <v>0.41421652076077697</v>
+      </c>
+      <c r="X39" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD39" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X39,$R:$R,$S:$S,0),3)</f>
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="AE39" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y39,$R:$R,$S:$S,0),3)</f>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="AJ39" t="str">
+        <f>IF(_xlfn.XLOOKUP(X39,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X39,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X39,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK39" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y39,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y39,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y39,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.388 ***</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">0.106 *  </v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>0.531 ***</v>
+      </c>
+      <c r="R40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S40">
+        <v>0.21557813542620899</v>
+      </c>
+      <c r="T40">
+        <v>0.27487631949939101</v>
+      </c>
+      <c r="X40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD40" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X40,$R:$R,$S:$S,0),3)</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AE40" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y40,$R:$R,$S:$S,0),3)</f>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AJ40" t="str">
+        <f>IF(_xlfn.XLOOKUP(X40,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X40,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X40,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK40" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y40,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y40,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y40,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">-0.149 ** </v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R41" t="s">
+        <v>39</v>
+      </c>
+      <c r="S41">
+        <v>0.42989107428354001</v>
+      </c>
+      <c r="T41">
+        <v>0.152867480111402</v>
+      </c>
+      <c r="X41" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD41" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X41,$R:$R,$S:$S,0),3)</f>
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="AE41" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y41,$R:$R,$S:$S,0),3)</f>
+        <v>0.93</v>
+      </c>
+      <c r="AJ41" t="str">
+        <f>IF(_xlfn.XLOOKUP(X41,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X41,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X41,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK41" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y41,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y41,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y41,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>0.237 ***</v>
+      </c>
+      <c r="R42" t="s">
+        <v>40</v>
+      </c>
+      <c r="S42">
+        <v>7.7171961870194206E-2</v>
+      </c>
+      <c r="T42">
+        <v>0.42924210450320199</v>
+      </c>
+      <c r="X42" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD42" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X42,$R:$R,$S:$S,0),3)</f>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AE42" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y42,$R:$R,$S:$S,0),3)</f>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AJ42" t="str">
+        <f>IF(_xlfn.XLOOKUP(X42,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X42,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X42,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK42" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y42,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y42,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y42,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D43" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.329 ***</v>
+      </c>
+      <c r="R43" t="s">
+        <v>41</v>
+      </c>
+      <c r="S43">
+        <v>0.80830885109597095</v>
+      </c>
+      <c r="T43" s="1">
+        <v>2.84821461594586E-4</v>
+      </c>
+      <c r="X43" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD43" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X43,$R:$R,$S:$S,0),3)</f>
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AE43" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y43,$R:$R,$S:$S,0),3)</f>
+        <v>0.879</v>
+      </c>
+      <c r="AJ43" t="str">
+        <f>IF(_xlfn.XLOOKUP(X43,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X43,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X43,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK43" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y43,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y43,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y43,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>0.226 ***</v>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E44" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.009 ***</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R44" t="s">
+        <v>42</v>
+      </c>
+      <c r="S44">
+        <v>0.499838412670778</v>
+      </c>
+      <c r="T44">
+        <v>2.0159533805934701E-2</v>
+      </c>
+      <c r="X44" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD44" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X44,$R:$R,$S:$S,0),3)</f>
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="AE44" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y44,$R:$R,$S:$S,0),3)</f>
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AJ44" t="str">
+        <f>IF(_xlfn.XLOOKUP(X44,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X44,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X44,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK44" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y44,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y44,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y44,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f>IF(AD68="","",TEXT(AD68,"0.000")&amp;AJ68)</f>
+        <v>0.292 ***</v>
+      </c>
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>0.460 ***</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.244 ***</v>
+      </c>
+      <c r="R45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45">
+        <v>0.23434927299601899</v>
+      </c>
+      <c r="T45">
+        <v>0.28058042834817798</v>
+      </c>
+      <c r="X45" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD45" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X45,$R:$R,$S:$S,0),3)</f>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AE45" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y45,$R:$R,$S:$S,0),3)</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="AJ45" t="str">
+        <f>IF(_xlfn.XLOOKUP(X45,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X45,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X45,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK45" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y45,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y45,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y45,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">-0.042    </v>
+      </c>
+      <c r="E46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.397 ***</v>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R46" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46">
+        <v>0.324688730840137</v>
+      </c>
+      <c r="T46">
+        <v>0.207344371293809</v>
+      </c>
+      <c r="X46" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD46" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X46,$R:$R,$S:$S,0),3)</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AE46" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y46,$R:$R,$S:$S,0),3)</f>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AJ46" t="str">
+        <f>IF(_xlfn.XLOOKUP(X46,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X46,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X46,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK46" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y46,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y46,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y46,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">-0.134 *  </v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">-0.112 *  </v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.520 ***</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R47" t="s">
+        <v>45</v>
+      </c>
+      <c r="S47">
+        <v>0.29182949322926599</v>
+      </c>
+      <c r="T47">
+        <v>0.19854512552403999</v>
+      </c>
+      <c r="X47" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD47" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X47,$R:$R,$S:$S,0),3)</f>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AE47" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y47,$R:$R,$S:$S,0),3)</f>
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AJ47" t="str">
+        <f>IF(_xlfn.XLOOKUP(X47,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X47,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X47,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK47" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y47,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y47,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y47,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>46</v>
+      </c>
+      <c r="S48">
+        <v>-0.36207896333743</v>
+      </c>
+      <c r="T48">
+        <v>5.6728882083898001E-2</v>
+      </c>
+      <c r="X48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD48" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X48,$R:$R,$S:$S,0),3)</f>
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="AE48" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y48,$R:$R,$S:$S,0),3)</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="AJ48" t="str">
+        <f>IF(_xlfn.XLOOKUP(X48,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X48,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X48,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK48" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y48,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y48,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y48,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="49" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>47</v>
+      </c>
+      <c r="S49">
+        <v>-0.89915541694119205</v>
+      </c>
+      <c r="T49">
+        <v>2.4537697319458799E-3</v>
+      </c>
+      <c r="X49" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD49" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X49,$R:$R,$S:$S,0),3)</f>
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="AE49" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y49,$R:$R,$S:$S,0),3)</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AJ49" t="str">
+        <f>IF(_xlfn.XLOOKUP(X49,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X49,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X49,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK49" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y49,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y49,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y49,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="50" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S50">
+        <v>-0.45745104629271599</v>
+      </c>
+      <c r="T50">
+        <v>0.120086913024966</v>
+      </c>
+      <c r="X50" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD50" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X50,$R:$R,$S:$S,0),3)</f>
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AE50" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y50,$R:$R,$S:$S,0),3)</f>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="AJ50" t="str">
+        <f>IF(_xlfn.XLOOKUP(X50,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X50,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X50,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK50" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y50,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y50,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y50,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="51" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
+        <v>49</v>
+      </c>
+      <c r="S51">
+        <v>0.70304381827538298</v>
+      </c>
+      <c r="T51">
+        <v>5.31095591211449E-2</v>
+      </c>
+      <c r="X51" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD51" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X51,$R:$R,$S:$S,0),3)</f>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AE51" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y51,$R:$R,$S:$S,0),3)</f>
+        <v>0.84</v>
+      </c>
+      <c r="AJ51" t="str">
+        <f>IF(_xlfn.XLOOKUP(X51,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X51,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X51,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK51" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y51,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y51,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y51,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="52" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
+        <v>50</v>
+      </c>
+      <c r="S52">
+        <v>-0.45892970698476099</v>
+      </c>
+      <c r="T52">
+        <v>9.9175461820417796E-2</v>
+      </c>
+      <c r="X52" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD52" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X52,$R:$R,$S:$S,0),3)</f>
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="AE52" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y52,$R:$R,$S:$S,0),3)</f>
+        <v>0.93</v>
+      </c>
+      <c r="AJ52" t="str">
+        <f>IF(_xlfn.XLOOKUP(X52,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X52,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X52,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK52" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y52,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y52,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y52,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="53" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
+        <v>51</v>
+      </c>
+      <c r="S53">
+        <v>-0.45404108325115</v>
+      </c>
+      <c r="T53">
+        <v>1.42973990582159E-2</v>
+      </c>
+      <c r="X53" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD53" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X53,$R:$R,$S:$S,0),3)</f>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AE53" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(Y53,$R:$R,$S:$S,0),3)</f>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AJ53" t="str">
+        <f>IF(_xlfn.XLOOKUP(X53,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X53,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X53,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK53" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y53,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y53,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y53,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="54" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>52</v>
+      </c>
+      <c r="S54">
+        <v>-0.20353260539356099</v>
+      </c>
+      <c r="T54">
+        <v>0.167287696112945</v>
+      </c>
+      <c r="AD54" t="str">
+        <f>IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AE54" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AF54" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AG54" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AH54" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="55" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R55" t="s">
+        <v>53</v>
+      </c>
+      <c r="S55">
+        <v>-0.471381398237259</v>
+      </c>
+      <c r="T55">
+        <v>7.8678975543051199E-2</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>54</v>
+      </c>
+      <c r="S56">
+        <v>0.40665663174542499</v>
+      </c>
+      <c r="T56">
+        <v>0.173339243266</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <v>3</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R57" t="s">
+        <v>55</v>
+      </c>
+      <c r="S57" s="1">
+        <v>-9.9943087294381699E-4</v>
+      </c>
+      <c r="T57">
+        <v>0.498885616000728</v>
+      </c>
+      <c r="X57" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD57" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X57,$R:$R,$S:$S,0),3)</f>
+        <v>-0.20399999999999999</v>
+      </c>
+      <c r="AE57" s="6">
+        <f t="shared" ref="AE57:AH57" si="8">ROUND(_xlfn.XLOOKUP(Y57,$R:$R,$S:$S,0),3)</f>
+        <v>0.26</v>
+      </c>
+      <c r="AF57" s="6">
+        <f t="shared" si="8"/>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6">
+        <f t="shared" si="8"/>
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AJ57" t="str">
+        <f>IF(_xlfn.XLOOKUP(X57,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X57,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X57,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AK57" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y57,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y57,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y57,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL57" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z57,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z57,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z57,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AN57" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB57,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB57,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB57,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="58" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R58" t="s">
+        <v>56</v>
+      </c>
+      <c r="S58">
+        <v>-1.0589488306905399</v>
+      </c>
+      <c r="T58" s="1">
+        <v>2.19273461088409E-6</v>
+      </c>
+      <c r="X58" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD58" s="6">
+        <f t="shared" ref="AD58:AD70" si="9">ROUND(_xlfn.XLOOKUP(X58,$R:$R,$S:$S,0),3)</f>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AE58" s="6">
+        <f t="shared" ref="AE58:AE70" si="10">ROUND(_xlfn.XLOOKUP(Y58,$R:$R,$S:$S,0),3)</f>
+        <v>-0.32400000000000001</v>
+      </c>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6">
+        <f t="shared" ref="AH58:AH68" si="11">ROUND(_xlfn.XLOOKUP(AB58,$R:$R,$S:$S,0),3)</f>
+        <v>-0.24</v>
+      </c>
+      <c r="AJ58" t="str">
+        <f t="shared" ref="AJ58:AJ70" si="12">IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK58" t="str">
+        <f t="shared" ref="AK58:AK70" si="13">IF(_xlfn.XLOOKUP(Y58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN58" t="str">
+        <f t="shared" ref="AN58:AN68" si="14">IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="59" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59">
+        <v>0.39657912062043099</v>
+      </c>
+      <c r="T59">
+        <v>6.0697053244108699E-2</v>
+      </c>
+      <c r="X59" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD59" s="6">
+        <f t="shared" si="9"/>
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6">
+        <f t="shared" ref="AF59:AF69" si="15">ROUND(_xlfn.XLOOKUP(Z59,$R:$R,$S:$S,0),3)</f>
+        <v>0.308</v>
+      </c>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6">
+        <f t="shared" si="11"/>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AJ59" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL59" t="str">
+        <f t="shared" ref="AL59:AL69" si="16">IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN59" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="60" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>58</v>
+      </c>
+      <c r="S60">
+        <v>-0.30449192712335899</v>
+      </c>
+      <c r="T60">
+        <v>0.19793202338769</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6">
+        <f t="shared" si="10"/>
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AK60" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN60" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+    </row>
+    <row r="61" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>59</v>
+      </c>
+      <c r="S61">
+        <v>0.49883561745182498</v>
+      </c>
+      <c r="T61">
+        <v>0.119814597342985</v>
+      </c>
+      <c r="X61" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD61" s="6">
+        <f t="shared" si="9"/>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AE61" s="6">
+        <f t="shared" si="10"/>
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AF61" s="6">
+        <f t="shared" si="15"/>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AJ61" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK61" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL61" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="62" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R62" t="s">
+        <v>60</v>
+      </c>
+      <c r="S62">
+        <v>0.26593665410094602</v>
+      </c>
+      <c r="T62">
+        <v>0.27559450830740201</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="6"/>
+      <c r="AL62" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="63" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R63" t="s">
+        <v>61</v>
+      </c>
+      <c r="S63">
+        <v>-0.62275543960606805</v>
+      </c>
+      <c r="T63">
+        <v>1.50631309357535E-2</v>
+      </c>
+      <c r="X63" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD63" s="6">
+        <f t="shared" si="9"/>
+        <v>-0.38800000000000001</v>
+      </c>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6">
+        <f t="shared" si="15"/>
+        <v>0.106</v>
+      </c>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6">
+        <f t="shared" si="11"/>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="AJ63" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL63" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AN63" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="64" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R64" t="s">
+        <v>62</v>
+      </c>
+      <c r="S64">
+        <v>0.80893468683018599</v>
+      </c>
+      <c r="T64">
+        <v>4.5169890918462796E-3</v>
+      </c>
+      <c r="X64" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD64" s="6">
+        <f t="shared" si="9"/>
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AJ64" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+    </row>
+    <row r="65" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R65" t="s">
+        <v>63</v>
+      </c>
+      <c r="S65">
+        <v>-0.28138784924726201</v>
+      </c>
+      <c r="T65">
+        <v>0.284709120422238</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6">
+        <f t="shared" si="11"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AN65" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="66" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R66" t="s">
+        <v>64</v>
+      </c>
+      <c r="S66">
+        <v>0.43362663126925</v>
+      </c>
+      <c r="T66">
+        <v>0.20961205557145701</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="AN66" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="67" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R67" t="s">
+        <v>65</v>
+      </c>
+      <c r="S67">
+        <v>0.73332284989860896</v>
+      </c>
+      <c r="T67">
+        <v>3.2671117877225903E-2</v>
+      </c>
+      <c r="X67" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD67" s="6">
+        <f t="shared" si="9"/>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6">
+        <f t="shared" ref="AG67:AG70" si="17">ROUND(_xlfn.XLOOKUP(AA67,$R:$R,$S:$S,0),3)</f>
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="AH67" s="6"/>
+      <c r="AJ67" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM67" t="str">
+        <f t="shared" ref="AM67:AM70" si="18">IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="68" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R68" t="s">
+        <v>66</v>
+      </c>
+      <c r="S68">
+        <v>1.8446926807822099</v>
+      </c>
+      <c r="T68" s="1">
+        <v>3.3306690738754598E-16</v>
+      </c>
+      <c r="X68" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD68" s="6">
+        <f t="shared" si="9"/>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6">
+        <f t="shared" si="17"/>
+        <v>0.46</v>
+      </c>
+      <c r="AH68" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.24399999999999999</v>
+      </c>
+      <c r="AJ68" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM68" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN68" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="69" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R69" t="s">
+        <v>67</v>
+      </c>
+      <c r="S69">
+        <v>1.3619554256055699</v>
+      </c>
+      <c r="T69" s="1">
+        <v>2.1198210532480299E-6</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6">
+        <f t="shared" si="10"/>
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="AF69" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AK69" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL69" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="70" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R70" t="s">
+        <v>68</v>
+      </c>
+      <c r="S70">
+        <v>1.1518818252142</v>
+      </c>
+      <c r="T70" s="1">
+        <v>6.3858488265755499E-4</v>
+      </c>
+      <c r="X70" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD70" s="6">
+        <f t="shared" si="9"/>
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="AE70" s="6">
+        <f t="shared" si="10"/>
+        <v>-0.112</v>
+      </c>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6">
+        <f t="shared" si="17"/>
+        <v>-0.52</v>
+      </c>
+      <c r="AH70" s="6"/>
+      <c r="AJ70" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AK70" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AM70" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="71" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R71" t="s">
+        <v>69</v>
+      </c>
+      <c r="S71">
+        <v>1.2091292419764501</v>
+      </c>
+      <c r="T71">
+        <v>8.9855973728845094E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>70</v>
+      </c>
+      <c r="S72">
+        <v>-0.252593971697053</v>
+      </c>
+      <c r="T72">
+        <v>0.24282440759388699</v>
+      </c>
+    </row>
+    <row r="73" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R73" t="s">
+        <v>71</v>
+      </c>
+      <c r="S73">
+        <v>0.43099550640482598</v>
+      </c>
+      <c r="T73">
+        <v>2.7508404084974201E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>72</v>
+      </c>
+      <c r="S74">
+        <v>0.64029286860137902</v>
+      </c>
+      <c r="T74">
+        <v>5.6231909661954502E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>73</v>
+      </c>
+      <c r="S75">
+        <v>0.17957849292245701</v>
+      </c>
+      <c r="T75">
+        <v>0.30030407796682201</v>
+      </c>
+    </row>
+    <row r="76" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R76" t="s">
+        <v>74</v>
+      </c>
+      <c r="S76">
+        <v>9.1636318767241102E-3</v>
+      </c>
+      <c r="T76">
+        <v>0.49198082235169399</v>
+      </c>
+    </row>
+    <row r="77" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R77" t="s">
+        <v>75</v>
+      </c>
+      <c r="S77">
+        <v>5.7453486352307397E-2</v>
+      </c>
+      <c r="T77">
+        <v>0.45041891281034502</v>
+      </c>
+    </row>
+    <row r="78" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R78" t="s">
+        <v>76</v>
+      </c>
+      <c r="S78">
+        <v>0.48512156558310698</v>
+      </c>
+      <c r="T78">
+        <v>5.2655817394601297E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R79" t="s">
+        <v>77</v>
+      </c>
+      <c r="S79">
+        <v>0.19610415357698499</v>
+      </c>
+      <c r="T79">
+        <v>0.31456328841131498</v>
+      </c>
+    </row>
+    <row r="80" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R80" t="s">
+        <v>78</v>
+      </c>
+      <c r="S80">
+        <v>0.32703925096235698</v>
+      </c>
+      <c r="T80">
+        <v>0.245916325472957</v>
+      </c>
+    </row>
+    <row r="81" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R81" t="s">
+        <v>79</v>
+      </c>
+      <c r="S81">
+        <v>-0.20991894016586299</v>
+      </c>
+      <c r="T81">
+        <v>0.37249123666289802</v>
+      </c>
+    </row>
+    <row r="82" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R82" t="s">
+        <v>80</v>
+      </c>
+      <c r="S82">
+        <v>-0.26585226214980501</v>
+      </c>
+      <c r="T82">
+        <v>0.23954125211184901</v>
+      </c>
+    </row>
+    <row r="83" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R83" t="s">
+        <v>81</v>
+      </c>
+      <c r="S83">
+        <v>1.46811519528142</v>
+      </c>
+      <c r="T83" s="1">
+        <v>7.9762874483080197E-6</v>
+      </c>
+    </row>
+    <row r="84" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R84" t="s">
+        <v>82</v>
+      </c>
+      <c r="S84">
+        <v>0.86372633130542498</v>
+      </c>
+      <c r="T84">
+        <v>7.1928726573894297E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R85" t="s">
+        <v>83</v>
+      </c>
+      <c r="S85">
+        <v>-0.20249266081623299</v>
+      </c>
+      <c r="T85">
+        <v>0.32780337752393102</v>
+      </c>
+    </row>
+    <row r="86" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R86" t="s">
+        <v>84</v>
+      </c>
+      <c r="S86">
+        <v>0.42317758653861698</v>
+      </c>
+      <c r="T86">
+        <v>0.21960995846477599</v>
+      </c>
+    </row>
+    <row r="87" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R87" t="s">
+        <v>85</v>
+      </c>
+      <c r="S87">
+        <v>-0.78645564394150402</v>
+      </c>
+      <c r="T87">
+        <v>3.0489704490609199E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R88" t="s">
+        <v>86</v>
+      </c>
+      <c r="S88">
+        <v>1.3121412413231199</v>
+      </c>
+      <c r="T88" s="1">
+        <v>1.24268859837406E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R89" t="s">
+        <v>87</v>
+      </c>
+      <c r="S89">
+        <v>0.77591146577592995</v>
+      </c>
+      <c r="T89">
+        <v>1.9306311878312499E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R90" t="s">
+        <v>88</v>
+      </c>
+      <c r="S90">
+        <v>-0.22050053261385699</v>
+      </c>
+      <c r="T90">
+        <v>0.32311065225199997</v>
+      </c>
+    </row>
+    <row r="91" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R91" t="s">
+        <v>89</v>
+      </c>
+      <c r="S91">
+        <v>0.150597327840469</v>
+      </c>
+      <c r="T91">
+        <v>0.401030815436063</v>
+      </c>
+    </row>
+    <row r="92" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R92" t="s">
+        <v>90</v>
+      </c>
+      <c r="S92">
+        <v>-0.35101048071839103</v>
+      </c>
+      <c r="T92">
+        <v>0.156424991579207</v>
+      </c>
+    </row>
+    <row r="93" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R93" t="s">
+        <v>91</v>
+      </c>
+      <c r="S93">
+        <v>-0.28552354298661098</v>
+      </c>
+      <c r="T93">
+        <v>0.105623207832491</v>
+      </c>
+    </row>
+    <row r="94" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R94" t="s">
+        <v>92</v>
+      </c>
+      <c r="S94">
+        <v>-0.78688853399500203</v>
+      </c>
+      <c r="T94">
+        <v>1.65877235651046E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R95" t="s">
+        <v>93</v>
+      </c>
+      <c r="S95">
+        <v>-4.4447668355519299E-3</v>
+      </c>
+      <c r="T95">
+        <v>0.49513315520638201</v>
+      </c>
+    </row>
+    <row r="96" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R96" t="s">
+        <v>94</v>
+      </c>
+      <c r="S96">
+        <v>-5.2801870359780997E-2</v>
+      </c>
+      <c r="T96">
+        <v>0.44944350593689703</v>
+      </c>
+    </row>
+    <row r="97" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R97" t="s">
+        <v>235</v>
+      </c>
+      <c r="S97">
+        <v>-6.9833971113983703E-3</v>
+      </c>
+      <c r="T97">
+        <v>0.22407758025100599</v>
+      </c>
+    </row>
+    <row r="98" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R98" t="s">
+        <v>236</v>
+      </c>
+      <c r="S98">
+        <v>1.01453895689654E-2</v>
+      </c>
+      <c r="T98">
+        <v>5.9610917985834101E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R99" t="s">
+        <v>237</v>
+      </c>
+      <c r="S99">
+        <v>1.49250803911551E-2</v>
+      </c>
+      <c r="T99">
+        <v>7.0263225744701101E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R100" t="s">
+        <v>238</v>
+      </c>
+      <c r="S100">
+        <v>-3.5767147615965202E-3</v>
+      </c>
+      <c r="T100">
+        <v>0.34218557334907101</v>
+      </c>
+    </row>
+    <row r="101" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R101" t="s">
+        <v>239</v>
+      </c>
+      <c r="S101">
+        <v>7.48330919715068E-3</v>
+      </c>
+      <c r="T101">
+        <v>0.22246082034151099</v>
+      </c>
+    </row>
+    <row r="102" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R102" t="s">
+        <v>240</v>
+      </c>
+      <c r="S102">
+        <v>-3.7306672989558401E-3</v>
+      </c>
+      <c r="T102">
+        <v>0.16324864592268601</v>
+      </c>
+    </row>
+    <row r="103" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R103" t="s">
+        <v>241</v>
+      </c>
+      <c r="S103">
+        <v>-6.02960186959415E-3</v>
+      </c>
+      <c r="T103">
+        <v>0.15138304913655501</v>
+      </c>
+    </row>
+    <row r="104" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R104" t="s">
+        <v>242</v>
+      </c>
+      <c r="S104">
+        <v>-7.4828256935650104E-3</v>
+      </c>
+      <c r="T104">
+        <v>1.1053479267981701E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R105" t="s">
+        <v>243</v>
+      </c>
+      <c r="S105">
+        <v>-2.2581216740305599E-2</v>
+      </c>
+      <c r="T105">
+        <v>0.11558311552912701</v>
+      </c>
+    </row>
+    <row r="106" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R106" t="s">
+        <v>244</v>
+      </c>
+      <c r="S106">
+        <v>-2.3065435338441502E-3</v>
+      </c>
+      <c r="T106">
+        <v>0.403977033411622</v>
+      </c>
+    </row>
+    <row r="107" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R107" t="s">
+        <v>245</v>
+      </c>
+      <c r="S107">
+        <v>-7.2964880310761801E-2</v>
+      </c>
+      <c r="T107">
+        <v>0.48339955970819098</v>
+      </c>
+    </row>
+    <row r="108" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R108" t="s">
+        <v>246</v>
+      </c>
+      <c r="S108">
+        <v>-26.488516357864</v>
+      </c>
+      <c r="T108" s="1">
+        <v>2.4258752237171701E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R109" t="s">
+        <v>247</v>
+      </c>
+      <c r="S109">
+        <v>1.02882887705281</v>
+      </c>
+      <c r="T109">
+        <v>4.0927610996585401E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R110" t="s">
+        <v>248</v>
+      </c>
+      <c r="S110">
+        <v>1.54456689575336</v>
+      </c>
+      <c r="T110">
+        <v>1.17577292954418E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R111" t="s">
+        <v>249</v>
+      </c>
+      <c r="S111">
+        <v>-5.32033457060004</v>
+      </c>
+      <c r="T111">
+        <v>0.29617500526134299</v>
+      </c>
+    </row>
+    <row r="112" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R112" t="s">
+        <v>250</v>
+      </c>
+      <c r="S112">
+        <v>-0.20388509361399601</v>
+      </c>
+      <c r="T112">
+        <v>2.2491987748248999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R113" t="s">
+        <v>251</v>
+      </c>
+      <c r="S113">
+        <v>0.46458434387342601</v>
+      </c>
+      <c r="T113" s="1">
+        <v>1.88576517023975E-6</v>
+      </c>
+    </row>
+    <row r="114" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R114" t="s">
+        <v>252</v>
+      </c>
+      <c r="S114">
+        <v>-0.227040407925235</v>
+      </c>
+      <c r="T114">
+        <v>5.0687005791335499E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R115" t="s">
+        <v>253</v>
+      </c>
+      <c r="S115">
+        <v>0.35561628601432099</v>
+      </c>
+      <c r="T115" s="1">
+        <v>3.7039477575051502E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R116" t="s">
+        <v>254</v>
+      </c>
+      <c r="S116">
+        <v>-0.38837285577417902</v>
+      </c>
+      <c r="T116" s="1">
+        <v>1.4972927404599501E-6</v>
+      </c>
+    </row>
+    <row r="117" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R117" t="s">
+        <v>255</v>
+      </c>
+      <c r="S117">
+        <v>-0.148655556995791</v>
+      </c>
+      <c r="T117">
+        <v>3.6497517646360202E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R118" t="s">
+        <v>256</v>
+      </c>
+      <c r="S118">
+        <v>0.22581009903457899</v>
+      </c>
+      <c r="T118">
+        <v>6.0663140994326997E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R119" t="s">
+        <v>257</v>
+      </c>
+      <c r="S119">
+        <v>0.29203556412047899</v>
+      </c>
+      <c r="T119" s="1">
+        <v>9.3349349400750903E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R120" t="s">
+        <v>258</v>
+      </c>
+      <c r="S120">
+        <v>-0.134302276109761</v>
+      </c>
+      <c r="T120">
+        <v>5.3053939259624899E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R121" t="s">
+        <v>259</v>
+      </c>
+      <c r="S121">
+        <v>0.26044614248235898</v>
+      </c>
+      <c r="T121">
+        <v>1.1035689850009901E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R122" t="s">
+        <v>260</v>
+      </c>
+      <c r="S122">
+        <v>-0.32424627014720497</v>
+      </c>
+      <c r="T122" s="1">
+        <v>5.0359837582480895E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R123" t="s">
+        <v>261</v>
+      </c>
+      <c r="S123">
+        <v>-0.19890665419998901</v>
+      </c>
+      <c r="T123">
+        <v>6.9106393190545498E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R124" t="s">
+        <v>262</v>
+      </c>
+      <c r="S124">
+        <v>0.40350109604032403</v>
+      </c>
+      <c r="T124" s="1">
+        <v>7.4309322550813995E-7</v>
+      </c>
+    </row>
+    <row r="125" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R125" t="s">
+        <v>263</v>
+      </c>
+      <c r="S125">
+        <v>-4.1756943059104303E-2</v>
+      </c>
+      <c r="T125">
+        <v>0.29193660795451398</v>
+      </c>
+    </row>
+    <row r="126" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R126" t="s">
+        <v>264</v>
+      </c>
+      <c r="S126">
+        <v>-0.112383155790756</v>
+      </c>
+      <c r="T126">
+        <v>9.7587705890628595E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R127" t="s">
+        <v>265</v>
+      </c>
+      <c r="S127">
+        <v>0.22752940224068699</v>
+      </c>
+      <c r="T127">
+        <v>2.0169966055204599E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R128" t="s">
+        <v>266</v>
+      </c>
+      <c r="S128">
+        <v>0.30761625058966402</v>
+      </c>
+      <c r="T128">
+        <v>3.1122094548938699E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R129" t="s">
+        <v>267</v>
+      </c>
+      <c r="S129">
+        <v>0.292090508897695</v>
+      </c>
+      <c r="T129">
+        <v>5.6358106101224098E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R130" t="s">
+        <v>268</v>
+      </c>
+      <c r="S130">
+        <v>-0.35540079330142599</v>
+      </c>
+      <c r="T130">
+        <v>3.0663507199945E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R131" t="s">
+        <v>269</v>
+      </c>
+      <c r="S131">
+        <v>0.105990671526766</v>
+      </c>
+      <c r="T131">
+        <v>9.8863582667720398E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R132" t="s">
+        <v>270</v>
+      </c>
+      <c r="S132">
+        <v>-0.39704511220191002</v>
+      </c>
+      <c r="T132" s="1">
+        <v>3.03455436556632E-7</v>
+      </c>
+    </row>
+    <row r="133" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R133" t="s">
+        <v>271</v>
+      </c>
+      <c r="S133">
+        <v>-9.1349046574532994E-3</v>
+      </c>
+      <c r="T133">
+        <v>0.47013792071480798</v>
+      </c>
+    </row>
+    <row r="134" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R134" t="s">
+        <v>272</v>
+      </c>
+      <c r="S134">
+        <v>0.45971863967462401</v>
+      </c>
+      <c r="T134" s="1">
+        <v>6.7947060074957601E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R135" t="s">
+        <v>273</v>
+      </c>
+      <c r="S135">
+        <v>-0.51993531996031195</v>
+      </c>
+      <c r="T135" s="1">
+        <v>2.2533311335370899E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R136" t="s">
+        <v>274</v>
+      </c>
+      <c r="S136">
+        <v>0.23304905361429701</v>
+      </c>
+      <c r="T136">
+        <v>7.2691195677443404E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R137" t="s">
+        <v>275</v>
+      </c>
+      <c r="S137">
+        <v>-0.24014489946274301</v>
+      </c>
+      <c r="T137">
+        <v>4.7425018383180301E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R138" t="s">
+        <v>276</v>
+      </c>
+      <c r="S138">
+        <v>-0.139744902949404</v>
+      </c>
+      <c r="T138">
+        <v>3.2845434765634798E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R139" t="s">
+        <v>277</v>
+      </c>
+      <c r="S139">
+        <v>0.24295641023286199</v>
+      </c>
+      <c r="T139">
+        <v>1.5527417491453201E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R140" t="s">
+        <v>278</v>
+      </c>
+      <c r="S140">
+        <v>0.53146154555716196</v>
+      </c>
+      <c r="T140" s="1">
+        <v>1.8074741414686399E-7</v>
+      </c>
+    </row>
+    <row r="141" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R141" t="s">
+        <v>279</v>
+      </c>
+      <c r="S141">
+        <v>0.23656561760001499</v>
+      </c>
+      <c r="T141">
+        <v>2.1674832318424502E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R142" t="s">
+        <v>280</v>
+      </c>
+      <c r="S142">
+        <v>-0.32944653142151697</v>
+      </c>
+      <c r="T142" s="1">
+        <v>6.8161421605605899E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R143" t="s">
+        <v>281</v>
+      </c>
+      <c r="S143">
+        <v>-0.24387449364519601</v>
+      </c>
+      <c r="T143">
+        <v>1.24395422070333E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R144" t="s">
+        <v>95</v>
+      </c>
+      <c r="S144">
+        <v>-0.19889073653213701</v>
+      </c>
+      <c r="T144">
+        <v>0.14670159380433201</v>
+      </c>
+    </row>
+    <row r="145" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R145" t="s">
+        <v>96</v>
+      </c>
+      <c r="S145">
+        <v>0.209139520434309</v>
+      </c>
+      <c r="T145">
+        <v>0.14863805117103601</v>
+      </c>
+    </row>
+    <row r="146" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R146" t="s">
+        <v>97</v>
+      </c>
+      <c r="S146">
+        <v>-0.18154517302432899</v>
+      </c>
+      <c r="T146">
+        <v>0.16793848716902399</v>
+      </c>
+    </row>
+    <row r="147" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R147" t="s">
+        <v>98</v>
+      </c>
+      <c r="S147">
+        <v>-0.532310536360037</v>
+      </c>
+      <c r="T147">
+        <v>3.0017637564664999E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R148" t="s">
+        <v>99</v>
+      </c>
+      <c r="S148">
+        <v>4.7764984975210298E-2</v>
+      </c>
+      <c r="T148">
+        <v>0.40047525110411702</v>
+      </c>
+    </row>
+    <row r="149" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R149" t="s">
+        <v>100</v>
+      </c>
+      <c r="S149">
+        <v>-0.188855993356111</v>
+      </c>
+      <c r="T149">
+        <v>6.5592694239632696E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R150" t="s">
+        <v>101</v>
+      </c>
+      <c r="S150">
+        <v>-0.10020764293633699</v>
+      </c>
+      <c r="T150">
+        <v>0.19643338988140599</v>
+      </c>
+    </row>
+    <row r="151" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R151" t="s">
+        <v>102</v>
+      </c>
+      <c r="S151">
+        <v>-9.4423791128574602E-3</v>
+      </c>
+      <c r="T151">
+        <v>0.46781634466283001</v>
+      </c>
+    </row>
+    <row r="152" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R152" t="s">
+        <v>103</v>
+      </c>
+      <c r="S152">
+        <v>-0.51160666621559603</v>
+      </c>
+      <c r="T152" s="1">
+        <v>9.7017897864237702E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R153" t="s">
+        <v>104</v>
+      </c>
+      <c r="S153">
+        <v>-3.9721234899232599E-2</v>
+      </c>
+      <c r="T153">
+        <v>0.36408395037962799</v>
+      </c>
+    </row>
+    <row r="154" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R154" t="s">
+        <v>105</v>
+      </c>
+      <c r="S154">
+        <v>-0.36124992248483301</v>
+      </c>
+      <c r="T154">
+        <v>3.7337132215494698E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R155" t="s">
+        <v>106</v>
+      </c>
+      <c r="S155">
+        <v>0.106258901101735</v>
+      </c>
+      <c r="T155">
+        <v>0.22043217746346799</v>
+      </c>
+    </row>
+    <row r="156" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R156" t="s">
+        <v>107</v>
+      </c>
+      <c r="S156">
+        <v>-1.9134495337745899E-2</v>
+      </c>
+      <c r="T156">
+        <v>0.442995906050974</v>
+      </c>
+    </row>
+    <row r="157" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R157" t="s">
+        <v>108</v>
+      </c>
+      <c r="S157">
+        <v>-0.47537945492476402</v>
+      </c>
+      <c r="T157">
+        <v>3.4360675602175201E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R158" t="s">
+        <v>109</v>
+      </c>
+      <c r="S158">
+        <v>-8.9490346191082204E-2</v>
+      </c>
+      <c r="T158">
+        <v>0.240447539461287</v>
+      </c>
+    </row>
+    <row r="159" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R159" t="s">
+        <v>110</v>
+      </c>
+      <c r="S159">
+        <v>-0.14075744663161699</v>
+      </c>
+      <c r="T159">
+        <v>0.21166312514091101</v>
+      </c>
+    </row>
+    <row r="160" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R160" t="s">
+        <v>111</v>
+      </c>
+      <c r="S160">
+        <v>-0.13374432400956299</v>
+      </c>
+      <c r="T160">
+        <v>0.26269999400690502</v>
+      </c>
+    </row>
+    <row r="161" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R161" t="s">
+        <v>112</v>
+      </c>
+      <c r="S161">
+        <v>-0.21519427110445699</v>
+      </c>
+      <c r="T161">
+        <v>0.124784045429746</v>
+      </c>
+    </row>
+    <row r="162" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R162" t="s">
+        <v>113</v>
+      </c>
+      <c r="S162">
+        <v>-0.373566309658176</v>
+      </c>
+      <c r="T162">
+        <v>8.7627635920220007E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R163" t="s">
+        <v>114</v>
+      </c>
+      <c r="S163">
+        <v>-5.6346536100425303E-2</v>
+      </c>
+      <c r="T163">
+        <v>0.37148620774485303</v>
+      </c>
+    </row>
+    <row r="164" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R164" t="s">
+        <v>115</v>
+      </c>
+      <c r="S164">
+        <v>0.168014843790321</v>
+      </c>
+      <c r="T164">
+        <v>0.21546007569929701</v>
+      </c>
+    </row>
+    <row r="165" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R165" t="s">
+        <v>116</v>
+      </c>
+      <c r="S165">
+        <v>0.13882999897163101</v>
+      </c>
+      <c r="T165">
+        <v>0.25202065084674302</v>
+      </c>
+    </row>
+    <row r="166" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R166" t="s">
+        <v>117</v>
+      </c>
+      <c r="S166">
+        <v>0.18342827540489101</v>
+      </c>
+      <c r="T166">
+        <v>0.184366988061546</v>
+      </c>
+    </row>
+    <row r="167" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R167" t="s">
+        <v>118</v>
+      </c>
+      <c r="S167">
+        <v>-0.64639659527335902</v>
+      </c>
+      <c r="T167">
+        <v>1.26280760606261E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R168" t="s">
+        <v>119</v>
+      </c>
+      <c r="S168">
+        <v>-0.116961533677947</v>
+      </c>
+      <c r="T168">
+        <v>0.27872851709033902</v>
+      </c>
+    </row>
+    <row r="169" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R169" t="s">
+        <v>120</v>
+      </c>
+      <c r="S169">
+        <v>0.35643954636693398</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R170" t="s">
+        <v>121</v>
+      </c>
+      <c r="S170">
+        <v>0.42819602826213399</v>
+      </c>
+      <c r="T170" s="1">
+        <v>4.1310542431283102E-8</v>
+      </c>
+    </row>
+    <row r="171" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R171" t="s">
+        <v>122</v>
+      </c>
+      <c r="S171">
+        <v>0.43799389254051901</v>
+      </c>
+      <c r="T171" s="1">
+        <v>3.8502534494000399E-13</v>
+      </c>
+    </row>
+    <row r="172" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R172" t="s">
+        <v>123</v>
+      </c>
+      <c r="S172">
+        <v>0.52546664766779305</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R173" t="s">
+        <v>124</v>
+      </c>
+      <c r="S173">
+        <v>0.43028272829435699</v>
+      </c>
+      <c r="T173" s="1">
+        <v>1.6987300455184501E-11</v>
+      </c>
+    </row>
+    <row r="174" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R174" t="s">
+        <v>125</v>
+      </c>
+      <c r="S174">
+        <v>0.81917905141168301</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R175" t="s">
+        <v>126</v>
+      </c>
+      <c r="S175">
+        <v>0.62408656720095002</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R176" t="s">
+        <v>127</v>
+      </c>
+      <c r="S176">
+        <v>0.39026401816586898</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R177" t="s">
+        <v>128</v>
+      </c>
+      <c r="S177">
+        <v>-0.54473630208704504</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R178" t="s">
+        <v>129</v>
+      </c>
+      <c r="S178">
+        <v>0.56641332086140095</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R179" t="s">
+        <v>130</v>
+      </c>
+      <c r="S179">
+        <v>-0.35174271298002002</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R180" t="s">
+        <v>131</v>
+      </c>
+      <c r="S180">
+        <v>0.48454750923155798</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R181" t="s">
+        <v>132</v>
+      </c>
+      <c r="S181">
+        <v>0.45436076502692901</v>
+      </c>
+      <c r="T181" s="1">
+        <v>5.7625499927382804E-9</v>
+      </c>
+    </row>
+    <row r="182" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R182" t="s">
+        <v>133</v>
+      </c>
+      <c r="S182">
+        <v>-0.56634438464148795</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R183" t="s">
+        <v>134</v>
+      </c>
+      <c r="S183">
+        <v>0.63563461809579902</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R184" t="s">
+        <v>135</v>
+      </c>
+      <c r="S184">
+        <v>0.34506382641191802</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R185" t="s">
+        <v>136</v>
+      </c>
+      <c r="S185">
+        <v>0.296819773881212</v>
+      </c>
+      <c r="T185" s="1">
+        <v>2.2204460492503101E-16</v>
+      </c>
+    </row>
+    <row r="186" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R186" t="s">
+        <v>137</v>
+      </c>
+      <c r="S186">
+        <v>0.41732585135275702</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R187" t="s">
+        <v>138</v>
+      </c>
+      <c r="S187">
+        <v>0.60273357629863999</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R188" t="s">
+        <v>139</v>
+      </c>
+      <c r="S188">
+        <v>0.80643565096288194</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R189" t="s">
+        <v>140</v>
+      </c>
+      <c r="S189">
+        <v>0.53445959822507905</v>
+      </c>
+      <c r="T189" s="1">
+        <v>9.8476782284251297E-14</v>
+      </c>
+    </row>
+    <row r="190" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R190" t="s">
+        <v>141</v>
+      </c>
+      <c r="S190">
+        <v>-0.35158652918664002</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R191" t="s">
+        <v>142</v>
+      </c>
+      <c r="S191">
+        <v>0.23213312167428099</v>
+      </c>
+      <c r="T191" s="1">
+        <v>2.22673202210366E-7</v>
+      </c>
+    </row>
+    <row r="192" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R192" t="s">
+        <v>143</v>
+      </c>
+      <c r="S192">
+        <v>0.93215180763462802</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R193" t="s">
+        <v>144</v>
+      </c>
+      <c r="S193">
+        <v>0.89322047182657205</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R194" t="s">
+        <v>145</v>
+      </c>
+      <c r="S194">
+        <v>0.89536057226917398</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R195" t="s">
+        <v>146</v>
+      </c>
+      <c r="S195">
+        <v>0.83543171802917504</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R196" t="s">
+        <v>147</v>
+      </c>
+      <c r="S196">
+        <v>0.89920207655233597</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R197" t="s">
+        <v>148</v>
+      </c>
+      <c r="S197">
+        <v>0.50867921221832302</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R198" t="s">
+        <v>149</v>
+      </c>
+      <c r="S198">
+        <v>0.75780383473969304</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R199" t="s">
+        <v>150</v>
+      </c>
+      <c r="S199">
+        <v>0.91780963072259603</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R200" t="s">
+        <v>151</v>
+      </c>
+      <c r="S200">
+        <v>0.821855498454652</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R201" t="s">
+        <v>152</v>
+      </c>
+      <c r="S201">
+        <v>0.81784766588680202</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R202" t="s">
+        <v>153</v>
+      </c>
+      <c r="S202">
+        <v>0.92962490672123999</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R203" t="s">
+        <v>154</v>
+      </c>
+      <c r="S203">
+        <v>0.86199109553657904</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R204" t="s">
+        <v>155</v>
+      </c>
+      <c r="S204">
+        <v>0.87891533640110897</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R205" t="s">
+        <v>156</v>
+      </c>
+      <c r="S205">
+        <v>0.80576325126491699</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R206" t="s">
+        <v>157</v>
+      </c>
+      <c r="S206">
+        <v>0.76478331736937799</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R207" t="s">
+        <v>158</v>
+      </c>
+      <c r="S207">
+        <v>0.93235161626202301</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R208" t="s">
+        <v>159</v>
+      </c>
+      <c r="S208">
+        <v>0.95333313572100498</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R209" t="s">
+        <v>160</v>
+      </c>
+      <c r="S209">
+        <v>0.90586896845675002</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R210" t="s">
+        <v>161</v>
+      </c>
+      <c r="S210">
+        <v>0.79162256080158799</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R211" t="s">
+        <v>162</v>
+      </c>
+      <c r="S211">
+        <v>0.53067981143705401</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R212" t="s">
+        <v>163</v>
+      </c>
+      <c r="S212">
+        <v>0.83970015213876703</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R213" t="s">
+        <v>164</v>
+      </c>
+      <c r="S213">
+        <v>0.92968884979945698</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R214" t="s">
+        <v>165</v>
+      </c>
+      <c r="S214">
+        <v>0.97144397338587996</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:G30">
+    <cfRule type="notContainsText" dxfId="5" priority="5" stopIfTrue="1" operator="notContains" text="~*">
+      <formula>ISERROR(SEARCH("~*",C3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:P25">
+    <cfRule type="notContainsText" dxfId="3" priority="3" stopIfTrue="1" operator="notContains" text="~*">
+      <formula>ISERROR(SEARCH("~*",K3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:G47">
+    <cfRule type="notContainsText" dxfId="1" priority="1" stopIfTrue="1" operator="notContains" text="~*">
+      <formula>ISERROR(SEARCH("~*",C34))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{2046AEE4-7585-465E-9086-6C94806D76F3}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C3)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="5" tint="-0.499984740745262"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C3:G30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{CFEB121A-C27D-4E33-89B5-502A2A972DE7}">
+            <xm:f>NOT(ISERROR(SEARCH("-",K3)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="5" tint="-0.499984740745262"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K3:P25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{EC728813-6E81-4ED0-AD1A-9ABF820F9D34}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C34)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="5" tint="-0.499984740745262"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C34:G47</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/R/output/iclv/summary.xlsx
+++ b/R/output/iclv/summary.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apricot\src\C001 Work Arrangement MDCEV\R\output\iclv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD19D6-E0FB-40B2-8F83-D1700611E1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E8E8E-A5E0-49E3-89BB-77CE845AD28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46125" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D107D1A2-D0F0-4F35-9302-4C0D93DAD2D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{D107D1A2-D0F0-4F35-9302-4C0D93DAD2D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Model2" sheetId="3" r:id="rId3"/>
+    <sheet name="Model2 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="298">
   <si>
     <t>asc_2</t>
   </si>
@@ -923,6 +924,15 @@
   </si>
   <si>
     <t>Non-manual-labor</t>
+  </si>
+  <si>
+    <t>Town/Rural</t>
+  </si>
+  <si>
+    <t>Travel Time (Min)</t>
+  </si>
+  <si>
+    <t>p(1-sided)</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1025,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.499984740745262"/>
@@ -6224,12 +6264,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:G26">
-    <cfRule type="notContainsText" dxfId="13" priority="3" stopIfTrue="1" operator="notContains" text="~*">
+    <cfRule type="notContainsText" dxfId="19" priority="3" stopIfTrue="1" operator="notContains" text="~*">
       <formula>ISERROR(SEARCH("~*",C3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:P25">
-    <cfRule type="notContainsText" dxfId="11" priority="1" stopIfTrue="1" operator="notContains" text="~*">
+    <cfRule type="notContainsText" dxfId="17" priority="1" stopIfTrue="1" operator="notContains" text="~*">
       <formula>ISERROR(SEARCH("~*",K3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11077,12 +11117,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:G26">
-    <cfRule type="notContainsText" dxfId="9" priority="3" stopIfTrue="1" operator="notContains" text="~*">
+    <cfRule type="notContainsText" dxfId="15" priority="3" stopIfTrue="1" operator="notContains" text="~*">
       <formula>ISERROR(SEARCH("~*",C3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:P25">
-    <cfRule type="notContainsText" dxfId="7" priority="1" stopIfTrue="1" operator="notContains" text="~*">
+    <cfRule type="notContainsText" dxfId="13" priority="1" stopIfTrue="1" operator="notContains" text="~*">
       <formula>ISERROR(SEARCH("~*",K3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11124,8 +11164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6460B2B-835F-4E76-9E7D-EBEFE896AA9A}">
   <dimension ref="A1:AN214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11267,11 +11307,11 @@
         <v>232</v>
       </c>
       <c r="K3" s="3" t="str">
-        <f>TEXT(AD31,"0.000")&amp;AJ31</f>
+        <f t="shared" ref="K3:K25" si="1">TEXT(AD31,"0.000")&amp;AJ31</f>
         <v>0.356 ***</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f>TEXT(AE31,"0.000")&amp;AK31</f>
+        <f t="shared" ref="L3:L25" si="2">TEXT(AE31,"0.000")&amp;AK31</f>
         <v>0.932 ***</v>
       </c>
       <c r="M3" s="3"/>
@@ -11303,43 +11343,43 @@
         <v>4</v>
       </c>
       <c r="AD3" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X3,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AD3:AD29" si="3">ROUND(_xlfn.XLOOKUP(X3,$R:$R,$S:$S,0),3)</f>
         <v>-1.3540000000000001</v>
       </c>
       <c r="AE3" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y3,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AE3:AE29" si="4">ROUND(_xlfn.XLOOKUP(Y3,$R:$R,$S:$S,0),3)</f>
         <v>-1.6870000000000001</v>
       </c>
       <c r="AF3" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z3,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AF3:AF29" si="5">ROUND(_xlfn.XLOOKUP(Z3,$R:$R,$S:$S,0),3)</f>
         <v>-2.4119999999999999</v>
       </c>
       <c r="AG3" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA3,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AG3:AG29" si="6">ROUND(_xlfn.XLOOKUP(AA3,$R:$R,$S:$S,0),3)</f>
         <v>-1.236</v>
       </c>
       <c r="AH3" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB3,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AH3:AH29" si="7">ROUND(_xlfn.XLOOKUP(AB3,$R:$R,$S:$S,0),3)</f>
         <v>-3.7629999999999999</v>
       </c>
       <c r="AJ3" t="str">
-        <f>IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AJ3:AJ29" si="8">IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AK3" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AK3:AK29" si="9">IF(_xlfn.XLOOKUP(Y3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL3" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AL3:AL29" si="10">IF(_xlfn.XLOOKUP(Z3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM3" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AM3:AM29" si="11">IF(_xlfn.XLOOKUP(AA3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AN3" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AN3:AN29" si="12">IF(_xlfn.XLOOKUP(AB3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -11377,11 +11417,11 @@
         <v>233</v>
       </c>
       <c r="K4" s="3" t="str">
-        <f>TEXT(AD32,"0.000")&amp;AJ32</f>
+        <f t="shared" si="1"/>
         <v>0.428 ***</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f>TEXT(AE32,"0.000")&amp;AK32</f>
+        <f t="shared" si="2"/>
         <v>0.893 ***</v>
       </c>
       <c r="M4" s="3"/>
@@ -11413,43 +11453,43 @@
         <v>13</v>
       </c>
       <c r="AD4" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X4,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.17799999999999999</v>
       </c>
       <c r="AE4" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y4,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.46300000000000002</v>
       </c>
       <c r="AF4" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z4,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-0.104</v>
       </c>
       <c r="AG4" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA4,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.218</v>
       </c>
       <c r="AH4" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB4,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>-0.379</v>
       </c>
       <c r="AJ4" t="str">
-        <f>IF(_xlfn.XLOOKUP(X4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK4" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AL4" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AM4" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN4" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -11484,11 +11524,11 @@
         <v>231</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f>TEXT(AD33,"0.000")&amp;AJ33</f>
+        <f t="shared" si="1"/>
         <v>0.438 ***</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f>TEXT(AE33,"0.000")&amp;AK33</f>
+        <f t="shared" si="2"/>
         <v>0.895 ***</v>
       </c>
       <c r="M5" s="3"/>
@@ -11520,43 +11560,43 @@
         <v>14</v>
       </c>
       <c r="AD5" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X5,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-7.5999999999999998E-2</v>
       </c>
       <c r="AE5" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y5,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-3.1E-2</v>
       </c>
       <c r="AF5" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z5,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.19700000000000001</v>
       </c>
       <c r="AG5" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA5,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.20300000000000001</v>
       </c>
       <c r="AH5" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB5,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.20399999999999999</v>
       </c>
       <c r="AJ5" t="str">
-        <f>IF(_xlfn.XLOOKUP(X5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK5" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL5" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AM5" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN5" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB5,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB5,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB5,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -11594,11 +11634,11 @@
         <v>229</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f>TEXT(AD34,"0.000")&amp;AJ34</f>
+        <f t="shared" si="1"/>
         <v>0.525 ***</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f>TEXT(AE34,"0.000")&amp;AK34</f>
+        <f t="shared" si="2"/>
         <v>0.835 ***</v>
       </c>
       <c r="M6" s="3"/>
@@ -11630,43 +11670,43 @@
         <v>19</v>
       </c>
       <c r="AD6" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X6,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>0.17199999999999999</v>
       </c>
       <c r="AE6" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y6,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>0.21299999999999999</v>
       </c>
       <c r="AF6" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z6,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.55800000000000005</v>
       </c>
       <c r="AG6" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA6,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.19500000000000001</v>
       </c>
       <c r="AH6" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB6,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.24099999999999999</v>
       </c>
       <c r="AJ6" t="str">
-        <f>IF(_xlfn.XLOOKUP(X6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK6" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL6" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AM6" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN6" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB6,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB6,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB6,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -11704,11 +11744,11 @@
         <v>231</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f>TEXT(AD35,"0.000")&amp;AJ35</f>
+        <f t="shared" si="1"/>
         <v>0.430 ***</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f>TEXT(AE35,"0.000")&amp;AK35</f>
+        <f t="shared" si="2"/>
         <v>0.899 ***</v>
       </c>
       <c r="M7" s="3"/>
@@ -11740,43 +11780,43 @@
         <v>24</v>
       </c>
       <c r="AD7" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X7,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-6.2E-2</v>
       </c>
       <c r="AE7" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y7,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.63500000000000001</v>
       </c>
       <c r="AF7" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z7,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-1.9E-2</v>
       </c>
       <c r="AG7" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA7,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-6.0999999999999999E-2</v>
       </c>
       <c r="AH7" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB7,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.36599999999999999</v>
       </c>
       <c r="AJ7" t="str">
-        <f>IF(_xlfn.XLOOKUP(X7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK7" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL7" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AM7" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN7" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB7,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB7,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB7,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -11814,11 +11854,11 @@
         <v>283</v>
       </c>
       <c r="K8" s="3" t="str">
-        <f>TEXT(AD36,"0.000")&amp;AJ36</f>
+        <f t="shared" si="1"/>
         <v>0.819 ***</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f>TEXT(AE36,"0.000")&amp;AK36</f>
+        <f t="shared" si="2"/>
         <v>0.509 ***</v>
       </c>
       <c r="M8" s="3"/>
@@ -11850,43 +11890,43 @@
         <v>29</v>
       </c>
       <c r="AD8" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X8,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.24</v>
       </c>
       <c r="AE8" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y8,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>0.38200000000000001</v>
       </c>
       <c r="AF8" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z8,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG8" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA8,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="AH8" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB8,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>-0.38700000000000001</v>
       </c>
       <c r="AJ8" t="str">
-        <f>IF(_xlfn.XLOOKUP(X8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK8" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL8" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM8" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN8" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB8,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB8,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB8,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -11924,11 +11964,11 @@
         <v>229</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f>TEXT(AD37,"0.000")&amp;AJ37</f>
+        <f t="shared" si="1"/>
         <v>0.624 ***</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f>TEXT(AE37,"0.000")&amp;AK37</f>
+        <f t="shared" si="2"/>
         <v>0.758 ***</v>
       </c>
       <c r="M9" s="3"/>
@@ -11960,43 +12000,43 @@
         <v>34</v>
       </c>
       <c r="AD9" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X9,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>0.44900000000000001</v>
       </c>
       <c r="AE9" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y9,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>0.53400000000000003</v>
       </c>
       <c r="AF9" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z9,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-0.59299999999999997</v>
       </c>
       <c r="AG9" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA9,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.58699999999999997</v>
       </c>
       <c r="AH9" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB9,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>-0.77400000000000002</v>
       </c>
       <c r="AJ9" t="str">
-        <f>IF(_xlfn.XLOOKUP(X9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK9" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AL9" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AM9" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN9" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB9,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB9,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB9,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -12031,11 +12071,11 @@
         <v>231</v>
       </c>
       <c r="K10" s="3" t="str">
-        <f>TEXT(AD38,"0.000")&amp;AJ38</f>
+        <f t="shared" si="1"/>
         <v>0.390 ***</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f>TEXT(AE38,"0.000")&amp;AK38</f>
+        <f t="shared" si="2"/>
         <v>0.918 ***</v>
       </c>
       <c r="M10" s="3"/>
@@ -12067,43 +12107,43 @@
         <v>39</v>
       </c>
       <c r="AD10" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X10,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>0.46400000000000002</v>
       </c>
       <c r="AE10" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y10,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>0.70699999999999996</v>
       </c>
       <c r="AF10" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z10,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="AG10" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA10,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>0.216</v>
       </c>
       <c r="AH10" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB10,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.43</v>
       </c>
       <c r="AJ10" t="str">
-        <f>IF(_xlfn.XLOOKUP(X10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK10" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL10" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AM10" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN10" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB10,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB10,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB10,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -12138,11 +12178,11 @@
         <v>229</v>
       </c>
       <c r="K11" s="3" t="str">
-        <f>TEXT(AD39,"0.000")&amp;AJ39</f>
+        <f t="shared" si="1"/>
         <v>-0.545 ***</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f>TEXT(AE39,"0.000")&amp;AK39</f>
+        <f t="shared" si="2"/>
         <v>0.822 ***</v>
       </c>
       <c r="M11" s="3"/>
@@ -12174,43 +12214,43 @@
         <v>44</v>
       </c>
       <c r="AD11" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X11,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="AE11" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y11,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>0.80800000000000005</v>
       </c>
       <c r="AF11" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z11,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AG11" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA11,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>0.23400000000000001</v>
       </c>
       <c r="AH11" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB11,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="AJ11" t="str">
-        <f>IF(_xlfn.XLOOKUP(X11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK11" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL11" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AM11" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN11" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB11,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB11,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB11,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -12248,11 +12288,11 @@
         <v>231</v>
       </c>
       <c r="K12" s="3" t="str">
-        <f>TEXT(AD40,"0.000")&amp;AJ40</f>
+        <f t="shared" si="1"/>
         <v>0.566 ***</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f>TEXT(AE40,"0.000")&amp;AK40</f>
+        <f t="shared" si="2"/>
         <v>0.818 ***</v>
       </c>
       <c r="M12" s="3"/>
@@ -12284,43 +12324,43 @@
         <v>49</v>
       </c>
       <c r="AD12" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X12,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>0.29199999999999998</v>
       </c>
       <c r="AE12" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y12,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.36199999999999999</v>
       </c>
       <c r="AF12" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z12,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-0.89900000000000002</v>
       </c>
       <c r="AG12" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA12,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.45700000000000002</v>
       </c>
       <c r="AH12" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB12,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.70299999999999996</v>
       </c>
       <c r="AJ12" t="str">
-        <f>IF(_xlfn.XLOOKUP(X12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK12" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AL12" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM12" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN12" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB12,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB12,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB12,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> *  </v>
       </c>
     </row>
@@ -12355,11 +12395,11 @@
         <v>229</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>TEXT(AD41,"0.000")&amp;AJ41</f>
+        <f t="shared" si="1"/>
         <v>-0.352 ***</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f>TEXT(AE41,"0.000")&amp;AK41</f>
+        <f t="shared" si="2"/>
         <v>0.930 ***</v>
       </c>
       <c r="M13" s="3"/>
@@ -12391,43 +12431,43 @@
         <v>54</v>
       </c>
       <c r="AD13" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X13,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.45900000000000002</v>
       </c>
       <c r="AE13" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y13,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.45400000000000001</v>
       </c>
       <c r="AF13" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z13,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-0.20399999999999999</v>
       </c>
       <c r="AG13" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA13,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.47099999999999997</v>
       </c>
       <c r="AH13" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB13,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="AJ13" t="str">
-        <f>IF(_xlfn.XLOOKUP(X13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AK13" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AL13" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AM13" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AN13" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB13,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB13,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB13,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -12465,11 +12505,11 @@
         <v>229</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f>TEXT(AD42,"0.000")&amp;AJ42</f>
+        <f t="shared" si="1"/>
         <v>0.485 ***</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f>TEXT(AE42,"0.000")&amp;AK42</f>
+        <f t="shared" si="2"/>
         <v>0.862 ***</v>
       </c>
       <c r="M14" s="3"/>
@@ -12501,43 +12541,43 @@
         <v>59</v>
       </c>
       <c r="AD14" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X14,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-1E-3</v>
       </c>
       <c r="AE14" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y14,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-1.0589999999999999</v>
       </c>
       <c r="AF14" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z14,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.39700000000000002</v>
       </c>
       <c r="AG14" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA14,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.30399999999999999</v>
       </c>
       <c r="AH14" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB14,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.499</v>
       </c>
       <c r="AJ14" t="str">
-        <f>IF(_xlfn.XLOOKUP(X14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK14" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL14" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AM14" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN14" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB14,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB14,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB14,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -12572,11 +12612,11 @@
         <v>233</v>
       </c>
       <c r="K15" s="3" t="str">
-        <f>TEXT(AD43,"0.000")&amp;AJ43</f>
+        <f t="shared" si="1"/>
         <v>0.454 ***</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f>TEXT(AE43,"0.000")&amp;AK43</f>
+        <f t="shared" si="2"/>
         <v>0.879 ***</v>
       </c>
       <c r="M15" s="3"/>
@@ -12608,43 +12648,43 @@
         <v>64</v>
       </c>
       <c r="AD15" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X15,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="AE15" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y15,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.623</v>
       </c>
       <c r="AF15" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z15,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.80900000000000005</v>
       </c>
       <c r="AG15" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA15,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.28100000000000003</v>
       </c>
       <c r="AH15" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB15,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.434</v>
       </c>
       <c r="AJ15" t="str">
-        <f>IF(_xlfn.XLOOKUP(X15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK15" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AL15" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM15" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN15" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB15,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB15,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB15,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -12679,11 +12719,11 @@
         <v>229</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f>TEXT(AD44,"0.000")&amp;AJ44</f>
+        <f t="shared" si="1"/>
         <v>-0.566 ***</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f>TEXT(AE44,"0.000")&amp;AK44</f>
+        <f t="shared" si="2"/>
         <v>0.806 ***</v>
       </c>
       <c r="M16" s="3"/>
@@ -12715,43 +12755,43 @@
         <v>69</v>
       </c>
       <c r="AD16" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X16,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>0.73299999999999998</v>
       </c>
       <c r="AE16" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y16,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>1.845</v>
       </c>
       <c r="AF16" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z16,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>1.3620000000000001</v>
       </c>
       <c r="AG16" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA16,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>1.1519999999999999</v>
       </c>
       <c r="AH16" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB16,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>1.2090000000000001</v>
       </c>
       <c r="AJ16" t="str">
-        <f>IF(_xlfn.XLOOKUP(X16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AK16" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL16" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM16" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AN16" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB16,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB16,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB16,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -12789,11 +12829,11 @@
         <v>232</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f>TEXT(AD45,"0.000")&amp;AJ45</f>
+        <f t="shared" si="1"/>
         <v>0.636 ***</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f>TEXT(AE45,"0.000")&amp;AK45</f>
+        <f t="shared" si="2"/>
         <v>0.765 ***</v>
       </c>
       <c r="M17" s="3"/>
@@ -12825,49 +12865,49 @@
         <v>74</v>
       </c>
       <c r="AD17" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X17,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.253</v>
       </c>
       <c r="AE17" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y17,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>0.43099999999999999</v>
       </c>
       <c r="AF17" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z17,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
       <c r="AG17" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA17,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>0.18</v>
       </c>
       <c r="AH17" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB17,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="AJ17" t="str">
-        <f>IF(_xlfn.XLOOKUP(X17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK17" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AL17" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM17" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN17" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB17,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB17,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB17,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12896,11 +12936,11 @@
         <v>229</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f>TEXT(AD46,"0.000")&amp;AJ46</f>
+        <f t="shared" si="1"/>
         <v>0.345 ***</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f>TEXT(AE46,"0.000")&amp;AK46</f>
+        <f t="shared" si="2"/>
         <v>0.932 ***</v>
       </c>
       <c r="M18" s="3"/>
@@ -12932,43 +12972,43 @@
         <v>79</v>
       </c>
       <c r="AD18" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X18,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="AE18" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y18,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="AF18" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z18,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.19600000000000001</v>
       </c>
       <c r="AG18" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA18,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>0.32700000000000001</v>
       </c>
       <c r="AH18" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB18,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>-0.21</v>
       </c>
       <c r="AJ18" t="str">
-        <f>IF(_xlfn.XLOOKUP(X18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK18" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AL18" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AM18" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN18" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB18,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB18,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB18,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13006,11 +13046,11 @@
         <v>232</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f>TEXT(AD47,"0.000")&amp;AJ47</f>
+        <f t="shared" si="1"/>
         <v>0.297 ***</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f>TEXT(AE47,"0.000")&amp;AK47</f>
+        <f t="shared" si="2"/>
         <v>0.953 ***</v>
       </c>
       <c r="M19" s="3"/>
@@ -13042,43 +13082,43 @@
         <v>84</v>
       </c>
       <c r="AD19" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X19,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.26600000000000001</v>
       </c>
       <c r="AE19" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y19,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>1.468</v>
       </c>
       <c r="AF19" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z19,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.86399999999999999</v>
       </c>
       <c r="AG19" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA19,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.20200000000000001</v>
       </c>
       <c r="AH19" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB19,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.42299999999999999</v>
       </c>
       <c r="AJ19" t="str">
-        <f>IF(_xlfn.XLOOKUP(X19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK19" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL19" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM19" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN19" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB19,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB19,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB19,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13113,11 +13153,11 @@
         <v>232</v>
       </c>
       <c r="K20" s="3" t="str">
-        <f>TEXT(AD48,"0.000")&amp;AJ48</f>
+        <f t="shared" si="1"/>
         <v>0.417 ***</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f>TEXT(AE48,"0.000")&amp;AK48</f>
+        <f t="shared" si="2"/>
         <v>0.906 ***</v>
       </c>
       <c r="M20" s="3"/>
@@ -13149,43 +13189,43 @@
         <v>89</v>
       </c>
       <c r="AD20" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X20,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.78600000000000003</v>
       </c>
       <c r="AE20" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y20,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>1.3120000000000001</v>
       </c>
       <c r="AF20" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z20,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.77600000000000002</v>
       </c>
       <c r="AG20" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA20,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.221</v>
       </c>
       <c r="AH20" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB20,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.151</v>
       </c>
       <c r="AJ20" t="str">
-        <f>IF(_xlfn.XLOOKUP(X20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AK20" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL20" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AM20" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN20" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB20,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB20,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB20,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13223,11 +13263,11 @@
         <v>232</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f>TEXT(AD49,"0.000")&amp;AJ49</f>
+        <f t="shared" si="1"/>
         <v>0.603 ***</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f>TEXT(AE49,"0.000")&amp;AK49</f>
+        <f t="shared" si="2"/>
         <v>0.792 ***</v>
       </c>
       <c r="M21" s="3"/>
@@ -13259,43 +13299,43 @@
         <v>94</v>
       </c>
       <c r="AD21" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X21,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.35099999999999998</v>
       </c>
       <c r="AE21" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y21,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.28599999999999998</v>
       </c>
       <c r="AF21" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z21,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-0.78700000000000003</v>
       </c>
       <c r="AG21" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA21,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AH21" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB21,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>-5.2999999999999999E-2</v>
       </c>
       <c r="AJ21" t="str">
-        <f>IF(_xlfn.XLOOKUP(X21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK21" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL21" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM21" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN21" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB21,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB21,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB21,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13307,23 +13347,23 @@
         <v>288</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" ref="C22:C29" si="1">TEXT(AD22,"0.000")&amp;AJ22</f>
+        <f t="shared" ref="C22:C29" si="13">TEXT(AD22,"0.000")&amp;AJ22</f>
         <v xml:space="preserve">-0.007    </v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" ref="D22:D29" si="2">TEXT(AE22,"0.000")&amp;AK22</f>
+        <f t="shared" ref="D22:D29" si="14">TEXT(AE22,"0.000")&amp;AK22</f>
         <v xml:space="preserve">0.010 *  </v>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" ref="E22:E29" si="3">TEXT(AF22,"0.000")&amp;AL22</f>
+        <f t="shared" ref="E22:E29" si="15">TEXT(AF22,"0.000")&amp;AL22</f>
         <v>0.015 ***</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" ref="F22:F29" si="4">TEXT(AG22,"0.000")&amp;AM22</f>
+        <f t="shared" ref="F22:F29" si="16">TEXT(AG22,"0.000")&amp;AM22</f>
         <v xml:space="preserve">-0.004    </v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" ref="G22:G29" si="5">TEXT(AH22,"0.000")&amp;AN22</f>
+        <f t="shared" ref="G22:G29" si="17">TEXT(AH22,"0.000")&amp;AN22</f>
         <v xml:space="preserve">0.007    </v>
       </c>
       <c r="I22" t="s">
@@ -13333,11 +13373,11 @@
         <v>283</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f>TEXT(AD50,"0.000")&amp;AJ50</f>
+        <f t="shared" si="1"/>
         <v>0.806 ***</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f>TEXT(AE50,"0.000")&amp;AK50</f>
+        <f t="shared" si="2"/>
         <v>0.531 ***</v>
       </c>
       <c r="M22" s="3"/>
@@ -13369,43 +13409,43 @@
         <v>239</v>
       </c>
       <c r="AD22" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X22,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="AE22" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y22,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="AF22" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z22,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AG22" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA22,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AH22" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB22,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AJ22" t="str">
-        <f>IF(_xlfn.XLOOKUP(X22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK22" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AL22" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM22" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN22" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB22,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB22,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB22,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13414,23 +13454,23 @@
         <v>289</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">-0.004    </v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">-0.006    </v>
       </c>
       <c r="E23" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">-0.007 ** </v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">-0.023    </v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">-0.002    </v>
       </c>
       <c r="I23" t="s">
@@ -13440,11 +13480,11 @@
         <v>231</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f>TEXT(AD51,"0.000")&amp;AJ51</f>
+        <f t="shared" si="1"/>
         <v>0.534 ***</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f>TEXT(AE51,"0.000")&amp;AK51</f>
+        <f t="shared" si="2"/>
         <v>0.840 ***</v>
       </c>
       <c r="M23" s="3"/>
@@ -13476,43 +13516,43 @@
         <v>244</v>
       </c>
       <c r="AD23" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X23,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AE23" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y23,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="AF23" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z23,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="AG23" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA23,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-2.3E-2</v>
       </c>
       <c r="AH23" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB23,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>-2E-3</v>
       </c>
       <c r="AJ23" t="str">
-        <f>IF(_xlfn.XLOOKUP(X23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK23" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL23" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AM23" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN23" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB23,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB23,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB23,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13521,23 +13561,23 @@
         <v>290</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">-0.073    </v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-26.489 ***</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">1.029 ** </v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.545 ***</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">-5.320    </v>
       </c>
       <c r="I24" t="s">
@@ -13547,11 +13587,11 @@
         <v>229</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f>TEXT(AD52,"0.000")&amp;AJ52</f>
+        <f t="shared" si="1"/>
         <v>-0.352 ***</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f>TEXT(AE52,"0.000")&amp;AK52</f>
+        <f t="shared" si="2"/>
         <v>0.930 ***</v>
       </c>
       <c r="M24" s="3"/>
@@ -13583,43 +13623,43 @@
         <v>249</v>
       </c>
       <c r="AD24" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X24,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-7.2999999999999995E-2</v>
       </c>
       <c r="AE24" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y24,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-26.489000000000001</v>
       </c>
       <c r="AF24" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z24,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>1.0289999999999999</v>
       </c>
       <c r="AG24" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA24,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>1.5449999999999999</v>
       </c>
       <c r="AH24" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB24,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>-5.32</v>
       </c>
       <c r="AJ24" t="str">
-        <f>IF(_xlfn.XLOOKUP(X24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK24" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL24" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AM24" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AN24" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB24,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB24,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB24,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13631,23 +13671,23 @@
         <v>229</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">-0.199    </v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">-0.189 *  </v>
       </c>
       <c r="E25" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-0.361 ***</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">-0.141    </v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0.168    </v>
       </c>
       <c r="I25" t="s">
@@ -13657,11 +13697,11 @@
         <v>231</v>
       </c>
       <c r="K25" s="3" t="str">
-        <f>TEXT(AD53,"0.000")&amp;AJ53</f>
+        <f t="shared" si="1"/>
         <v>0.232 ***</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f>TEXT(AE53,"0.000")&amp;AK53</f>
+        <f t="shared" si="2"/>
         <v>0.971 ***</v>
       </c>
       <c r="M25" s="3"/>
@@ -13693,43 +13733,43 @@
         <v>115</v>
       </c>
       <c r="AD25" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X25,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.19900000000000001</v>
       </c>
       <c r="AE25" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y25,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.189</v>
       </c>
       <c r="AF25" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z25,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-0.36099999999999999</v>
       </c>
       <c r="AG25" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA25,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.14099999999999999</v>
       </c>
       <c r="AH25" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB25,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.16800000000000001</v>
       </c>
       <c r="AJ25" t="str">
-        <f>IF(_xlfn.XLOOKUP(X25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK25" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AL25" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM25" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN25" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB25,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB25,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB25,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13738,23 +13778,23 @@
         <v>232</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0.209    </v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">-0.100    </v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0.106    </v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">-0.134    </v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0.139    </v>
       </c>
       <c r="R26" t="s">
@@ -13782,43 +13822,43 @@
         <v>116</v>
       </c>
       <c r="AD26" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X26,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>0.20899999999999999</v>
       </c>
       <c r="AE26" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y26,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
       <c r="AF26" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z26,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>0.106</v>
       </c>
       <c r="AG26" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA26,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.13400000000000001</v>
       </c>
       <c r="AH26" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB26,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.13900000000000001</v>
       </c>
       <c r="AJ26" t="str">
-        <f>IF(_xlfn.XLOOKUP(X26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK26" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL26" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AM26" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN26" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB26,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB26,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB26,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13827,23 +13867,23 @@
         <v>231</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">-0.182    </v>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">-0.009    </v>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">-0.019    </v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">-0.215    </v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0.183    </v>
       </c>
       <c r="R27" t="s">
@@ -13871,43 +13911,43 @@
         <v>117</v>
       </c>
       <c r="AD27" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X27,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.182</v>
       </c>
       <c r="AE27" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y27,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="AF27" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z27,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-1.9E-2</v>
       </c>
       <c r="AG27" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA27,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.215</v>
       </c>
       <c r="AH27" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB27,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>0.183</v>
       </c>
       <c r="AJ27" t="str">
-        <f>IF(_xlfn.XLOOKUP(X27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK27" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL27" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AM27" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN27" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB27,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB27,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB27,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -13916,23 +13956,23 @@
         <v>233</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">-0.532 ** </v>
       </c>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-0.512 ***</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-0.475 ***</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">-0.374 *  </v>
       </c>
       <c r="G28" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">-0.646 ** </v>
       </c>
       <c r="M28" s="2"/>
@@ -13965,43 +14005,43 @@
         <v>118</v>
       </c>
       <c r="AD28" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X28,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>-0.53200000000000003</v>
       </c>
       <c r="AE28" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y28,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.51200000000000001</v>
       </c>
       <c r="AF28" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z28,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-0.47499999999999998</v>
       </c>
       <c r="AG28" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA28,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-0.374</v>
       </c>
       <c r="AH28" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB28,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>-0.64600000000000002</v>
       </c>
       <c r="AJ28" t="str">
-        <f>IF(_xlfn.XLOOKUP(X28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> ** </v>
       </c>
       <c r="AK28" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL28" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM28" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AN28" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB28,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB28,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB28,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> ** </v>
       </c>
     </row>
@@ -14010,23 +14050,23 @@
         <v>230</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0.048    </v>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">-0.040    </v>
       </c>
       <c r="E29" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">-0.089    </v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">-0.056    </v>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">-0.117    </v>
       </c>
       <c r="R29" t="s">
@@ -14054,43 +14094,43 @@
         <v>119</v>
       </c>
       <c r="AD29" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X29,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="AE29" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y29,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="4"/>
         <v>-0.04</v>
       </c>
       <c r="AF29" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Z29,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="5"/>
         <v>-8.8999999999999996E-2</v>
       </c>
       <c r="AG29" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AA29,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="6"/>
         <v>-5.6000000000000001E-2</v>
       </c>
       <c r="AH29" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(AB29,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="7"/>
         <v>-0.11700000000000001</v>
       </c>
       <c r="AJ29" t="str">
-        <f>IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK29" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL29" t="str">
-        <f>IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AM29" t="str">
-        <f>IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN29" t="str">
-        <f>IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">    </v>
       </c>
     </row>
@@ -14133,19 +14173,19 @@
         <v>143</v>
       </c>
       <c r="AD31" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X31,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AD31:AD53" si="18">ROUND(_xlfn.XLOOKUP(X31,$R:$R,$S:$S,0),3)</f>
         <v>0.35599999999999998</v>
       </c>
       <c r="AE31" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y31,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AE31:AE53" si="19">ROUND(_xlfn.XLOOKUP(Y31,$R:$R,$S:$S,0),3)</f>
         <v>0.93200000000000005</v>
       </c>
       <c r="AJ31" t="str">
-        <f>IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AJ31:AJ53" si="20">IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK31" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y31,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y31,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y31,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AK31:AK53" si="21">IF(_xlfn.XLOOKUP(Y31,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y31,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y31,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14175,19 +14215,19 @@
         <v>144</v>
       </c>
       <c r="AD32" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X32,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.42799999999999999</v>
       </c>
       <c r="AE32" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y32,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.89300000000000002</v>
       </c>
       <c r="AJ32" t="str">
-        <f>IF(_xlfn.XLOOKUP(X32,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X32,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X32,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK32" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y32,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y32,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y32,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14223,19 +14263,19 @@
         <v>145</v>
       </c>
       <c r="AD33" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X33,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.438</v>
       </c>
       <c r="AE33" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y33,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="AJ33" t="str">
-        <f>IF(_xlfn.XLOOKUP(X33,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X33,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X33,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK33" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y33,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y33,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y33,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14251,19 +14291,19 @@
         <v xml:space="preserve">-0.204 ** </v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" ref="D34:G47" si="6">IF(AE57="","",TEXT(AE57,"0.000")&amp;AK57)</f>
+        <f t="shared" ref="D34:G47" si="22">IF(AE57="","",TEXT(AE57,"0.000")&amp;AK57)</f>
         <v xml:space="preserve">0.260 ** </v>
       </c>
       <c r="E34" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">0.228 ** </v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G34" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>0.233 ***</v>
       </c>
       <c r="R34" t="s">
@@ -14282,19 +14322,19 @@
         <v>146</v>
       </c>
       <c r="AD34" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X34,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="AE34" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y34,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.83499999999999996</v>
       </c>
       <c r="AJ34" t="str">
-        <f>IF(_xlfn.XLOOKUP(X34,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X34,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X34,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK34" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y34,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y34,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y34,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14303,23 +14343,23 @@
         <v>169</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f t="shared" ref="C35:C47" si="7">IF(AD58="","",TEXT(AD58,"0.000")&amp;AJ58)</f>
+        <f t="shared" ref="C35:C47" si="23">IF(AD58="","",TEXT(AD58,"0.000")&amp;AJ58)</f>
         <v>0.465 ***</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-0.324 ***</v>
       </c>
       <c r="E35" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-0.240 ***</v>
       </c>
       <c r="R35" t="s">
@@ -14338,19 +14378,19 @@
         <v>147</v>
       </c>
       <c r="AD35" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X35,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.43</v>
       </c>
       <c r="AE35" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y35,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.89900000000000002</v>
       </c>
       <c r="AJ35" t="str">
-        <f>IF(_xlfn.XLOOKUP(X35,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X35,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X35,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK35" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y35,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y35,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y35,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14362,23 +14402,23 @@
         <v>171</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-0.227 ***</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E36" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>0.308 ***</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>0.243 ***</v>
       </c>
       <c r="R36" t="s">
@@ -14397,19 +14437,19 @@
         <v>148</v>
       </c>
       <c r="AD36" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X36,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.81899999999999995</v>
       </c>
       <c r="AE36" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y36,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.50900000000000001</v>
       </c>
       <c r="AJ36" t="str">
-        <f>IF(_xlfn.XLOOKUP(X36,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X36,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X36,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK36" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y36,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y36,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y36,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14421,23 +14461,23 @@
         <v>173</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-0.199 ***</v>
       </c>
       <c r="E37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">-0.140 ** </v>
       </c>
       <c r="R37" t="s">
@@ -14456,19 +14496,19 @@
         <v>149</v>
       </c>
       <c r="AD37" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X37,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.624</v>
       </c>
       <c r="AE37" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y37,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.75800000000000001</v>
       </c>
       <c r="AJ37" t="str">
-        <f>IF(_xlfn.XLOOKUP(X37,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X37,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X37,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK37" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y37,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y37,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y37,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14480,23 +14520,23 @@
         <v>175</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.356 ***</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>0.404 ***</v>
       </c>
       <c r="E38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>0.292 ***</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K38" s="2"/>
@@ -14517,19 +14557,19 @@
         <v>150</v>
       </c>
       <c r="AD38" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X38,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.39</v>
       </c>
       <c r="AE38" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y38,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.91800000000000004</v>
       </c>
       <c r="AJ38" t="str">
-        <f>IF(_xlfn.XLOOKUP(X38,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X38,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X38,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK38" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y38,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y38,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y38,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14541,23 +14581,23 @@
         <v>179</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-0.355 ***</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R39" t="s">
@@ -14576,19 +14616,19 @@
         <v>151</v>
       </c>
       <c r="AD39" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X39,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>-0.54500000000000004</v>
       </c>
       <c r="AE39" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y39,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.82199999999999995</v>
       </c>
       <c r="AJ39" t="str">
-        <f>IF(_xlfn.XLOOKUP(X39,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X39,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X39,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK39" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y39,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y39,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y39,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14600,23 +14640,23 @@
         <v>291</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-0.388 ***</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">0.106 *  </v>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>0.531 ***</v>
       </c>
       <c r="R40" t="s">
@@ -14635,19 +14675,19 @@
         <v>152</v>
       </c>
       <c r="AD40" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X40,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.56599999999999995</v>
       </c>
       <c r="AE40" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y40,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.81799999999999995</v>
       </c>
       <c r="AJ40" t="str">
-        <f>IF(_xlfn.XLOOKUP(X40,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X40,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X40,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK40" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y40,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y40,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y40,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14659,23 +14699,23 @@
         <v>292</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">-0.149 ** </v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R41" t="s">
@@ -14694,19 +14734,19 @@
         <v>153</v>
       </c>
       <c r="AD41" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X41,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>-0.35199999999999998</v>
       </c>
       <c r="AE41" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y41,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.93</v>
       </c>
       <c r="AJ41" t="str">
-        <f>IF(_xlfn.XLOOKUP(X41,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X41,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X41,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK41" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y41,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y41,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y41,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14715,23 +14755,23 @@
         <v>184</v>
       </c>
       <c r="C42" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>0.237 ***</v>
       </c>
       <c r="R42" t="s">
@@ -14750,19 +14790,19 @@
         <v>154</v>
       </c>
       <c r="AD42" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X42,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="AE42" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y42,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.86199999999999999</v>
       </c>
       <c r="AJ42" t="str">
-        <f>IF(_xlfn.XLOOKUP(X42,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X42,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X42,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK42" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y42,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y42,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y42,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14774,23 +14814,23 @@
         <v>293</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-0.329 ***</v>
       </c>
       <c r="R43" t="s">
@@ -14809,19 +14849,19 @@
         <v>155</v>
       </c>
       <c r="AD43" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X43,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.45400000000000001</v>
       </c>
       <c r="AE43" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y43,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.879</v>
       </c>
       <c r="AJ43" t="str">
-        <f>IF(_xlfn.XLOOKUP(X43,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X43,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X43,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK43" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y43,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y43,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y43,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14830,23 +14870,23 @@
         <v>191</v>
       </c>
       <c r="C44" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.226 ***</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-0.009 ***</v>
       </c>
       <c r="G44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R44" t="s">
@@ -14865,19 +14905,19 @@
         <v>156</v>
       </c>
       <c r="AD44" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X44,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>-0.56599999999999995</v>
       </c>
       <c r="AE44" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y44,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.80600000000000005</v>
       </c>
       <c r="AJ44" t="str">
-        <f>IF(_xlfn.XLOOKUP(X44,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X44,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X44,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK44" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y44,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y44,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y44,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14893,19 +14933,19 @@
         <v>0.292 ***</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>0.460 ***</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-0.244 ***</v>
       </c>
       <c r="R45" t="s">
@@ -14924,19 +14964,19 @@
         <v>157</v>
       </c>
       <c r="AD45" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X45,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.63600000000000001</v>
       </c>
       <c r="AE45" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y45,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.76500000000000001</v>
       </c>
       <c r="AJ45" t="str">
-        <f>IF(_xlfn.XLOOKUP(X45,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X45,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X45,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK45" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y45,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y45,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y45,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -14945,23 +14985,23 @@
         <v>189</v>
       </c>
       <c r="C46" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">-0.042    </v>
       </c>
       <c r="E46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-0.397 ***</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R46" t="s">
@@ -14980,19 +15020,19 @@
         <v>158</v>
       </c>
       <c r="AD46" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X46,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="AE46" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y46,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.93200000000000005</v>
       </c>
       <c r="AJ46" t="str">
-        <f>IF(_xlfn.XLOOKUP(X46,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X46,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X46,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK46" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y46,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y46,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y46,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15004,23 +15044,23 @@
         <v>194</v>
       </c>
       <c r="C47" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">-0.134 *  </v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">-0.112 *  </v>
       </c>
       <c r="E47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-0.520 ***</v>
       </c>
       <c r="G47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R47" t="s">
@@ -15039,19 +15079,19 @@
         <v>159</v>
       </c>
       <c r="AD47" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X47,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.29699999999999999</v>
       </c>
       <c r="AE47" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y47,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.95299999999999996</v>
       </c>
       <c r="AJ47" t="str">
-        <f>IF(_xlfn.XLOOKUP(X47,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X47,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X47,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK47" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y47,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y47,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y47,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15072,19 +15112,19 @@
         <v>160</v>
       </c>
       <c r="AD48" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X48,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.41699999999999998</v>
       </c>
       <c r="AE48" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y48,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.90600000000000003</v>
       </c>
       <c r="AJ48" t="str">
-        <f>IF(_xlfn.XLOOKUP(X48,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X48,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X48,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK48" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y48,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y48,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y48,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15105,19 +15145,19 @@
         <v>161</v>
       </c>
       <c r="AD49" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X49,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.60299999999999998</v>
       </c>
       <c r="AE49" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y49,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.79200000000000004</v>
       </c>
       <c r="AJ49" t="str">
-        <f>IF(_xlfn.XLOOKUP(X49,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X49,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X49,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK49" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y49,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y49,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y49,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15138,19 +15178,19 @@
         <v>162</v>
       </c>
       <c r="AD50" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X50,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.80600000000000005</v>
       </c>
       <c r="AE50" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y50,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.53100000000000003</v>
       </c>
       <c r="AJ50" t="str">
-        <f>IF(_xlfn.XLOOKUP(X50,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X50,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X50,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK50" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y50,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y50,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y50,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15171,19 +15211,19 @@
         <v>163</v>
       </c>
       <c r="AD51" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X51,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.53400000000000003</v>
       </c>
       <c r="AE51" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y51,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.84</v>
       </c>
       <c r="AJ51" t="str">
-        <f>IF(_xlfn.XLOOKUP(X51,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X51,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X51,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK51" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y51,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y51,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y51,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15204,19 +15244,19 @@
         <v>164</v>
       </c>
       <c r="AD52" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X52,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>-0.35199999999999998</v>
       </c>
       <c r="AE52" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y52,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.93</v>
       </c>
       <c r="AJ52" t="str">
-        <f>IF(_xlfn.XLOOKUP(X52,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X52,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X52,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK52" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y52,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y52,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y52,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15237,19 +15277,19 @@
         <v>165</v>
       </c>
       <c r="AD53" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(X53,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="18"/>
         <v>0.23200000000000001</v>
       </c>
       <c r="AE53" s="6">
-        <f>ROUND(_xlfn.XLOOKUP(Y53,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" si="19"/>
         <v>0.97099999999999997</v>
       </c>
       <c r="AJ53" t="str">
-        <f>IF(_xlfn.XLOOKUP(X53,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X53,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X53,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK53" t="str">
-        <f>IF(_xlfn.XLOOKUP(Y53,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y53,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y53,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15351,16 +15391,16 @@
         <v>-0.20399999999999999</v>
       </c>
       <c r="AE57" s="6">
-        <f t="shared" ref="AE57:AH57" si="8">ROUND(_xlfn.XLOOKUP(Y57,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AE57:AH57" si="24">ROUND(_xlfn.XLOOKUP(Y57,$R:$R,$S:$S,0),3)</f>
         <v>0.26</v>
       </c>
       <c r="AF57" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.22800000000000001</v>
       </c>
       <c r="AG57" s="6"/>
       <c r="AH57" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.23300000000000001</v>
       </c>
       <c r="AJ57" t="str">
@@ -15400,29 +15440,29 @@
         <v>275</v>
       </c>
       <c r="AD58" s="6">
-        <f t="shared" ref="AD58:AD70" si="9">ROUND(_xlfn.XLOOKUP(X58,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AD58:AD70" si="25">ROUND(_xlfn.XLOOKUP(X58,$R:$R,$S:$S,0),3)</f>
         <v>0.46500000000000002</v>
       </c>
       <c r="AE58" s="6">
-        <f t="shared" ref="AE58:AE70" si="10">ROUND(_xlfn.XLOOKUP(Y58,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AE58:AE70" si="26">ROUND(_xlfn.XLOOKUP(Y58,$R:$R,$S:$S,0),3)</f>
         <v>-0.32400000000000001</v>
       </c>
       <c r="AF58" s="6"/>
       <c r="AG58" s="6"/>
       <c r="AH58" s="6">
-        <f t="shared" ref="AH58:AH68" si="11">ROUND(_xlfn.XLOOKUP(AB58,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AH58:AH68" si="27">ROUND(_xlfn.XLOOKUP(AB58,$R:$R,$S:$S,0),3)</f>
         <v>-0.24</v>
       </c>
       <c r="AJ58" t="str">
-        <f t="shared" ref="AJ58:AJ70" si="12">IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AJ58:AJ70" si="28">IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK58" t="str">
-        <f t="shared" ref="AK58:AK70" si="13">IF(_xlfn.XLOOKUP(Y58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AK58:AK70" si="29">IF(_xlfn.XLOOKUP(Y58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AN58" t="str">
-        <f t="shared" ref="AN58:AN68" si="14">IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AN58:AN68" si="30">IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15446,29 +15486,29 @@
         <v>277</v>
       </c>
       <c r="AD59" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>-0.22700000000000001</v>
       </c>
       <c r="AE59" s="6"/>
       <c r="AF59" s="6">
-        <f t="shared" ref="AF59:AF69" si="15">ROUND(_xlfn.XLOOKUP(Z59,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AF59:AF69" si="31">ROUND(_xlfn.XLOOKUP(Z59,$R:$R,$S:$S,0),3)</f>
         <v>0.308</v>
       </c>
       <c r="AG59" s="6"/>
       <c r="AH59" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.24299999999999999</v>
       </c>
       <c r="AJ59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL59" t="str">
-        <f t="shared" ref="AL59:AL69" si="16">IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AL59:AL69" si="32">IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AN59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15490,21 +15530,21 @@
       </c>
       <c r="AD60" s="6"/>
       <c r="AE60" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>-0.19900000000000001</v>
       </c>
       <c r="AF60" s="6"/>
       <c r="AG60" s="6"/>
       <c r="AH60" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="AK60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AN60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve"> ** </v>
       </c>
     </row>
@@ -15528,29 +15568,29 @@
         <v>267</v>
       </c>
       <c r="AD61" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.35599999999999998</v>
       </c>
       <c r="AE61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.40400000000000003</v>
       </c>
       <c r="AF61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.29199999999999998</v>
       </c>
       <c r="AG61" s="6"/>
       <c r="AH61" s="6"/>
       <c r="AJ61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AK61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15570,13 +15610,13 @@
       <c r="AD62" s="6"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>-0.35499999999999998</v>
       </c>
       <c r="AG62" s="6"/>
       <c r="AH62" s="6"/>
       <c r="AL62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15600,29 +15640,29 @@
         <v>278</v>
       </c>
       <c r="AD63" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>-0.38800000000000001</v>
       </c>
       <c r="AE63" s="6"/>
       <c r="AF63" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.106</v>
       </c>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.53100000000000003</v>
       </c>
       <c r="AJ63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AL63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AN63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15640,7 +15680,7 @@
         <v>255</v>
       </c>
       <c r="AD64" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>-0.14899999999999999</v>
       </c>
       <c r="AE64" s="6"/>
@@ -15648,7 +15688,7 @@
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
       <c r="AJ64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> ** </v>
       </c>
     </row>
@@ -15670,11 +15710,11 @@
       <c r="AF65" s="6"/>
       <c r="AG65" s="6"/>
       <c r="AH65" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.23699999999999999</v>
       </c>
       <c r="AN65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15696,11 +15736,11 @@
       <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
       <c r="AH66" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-0.32900000000000001</v>
       </c>
       <c r="AN66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15721,22 +15761,22 @@
         <v>271</v>
       </c>
       <c r="AD67" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.22600000000000001</v>
       </c>
       <c r="AE67" s="6"/>
       <c r="AF67" s="6"/>
       <c r="AG67" s="6">
-        <f t="shared" ref="AG67:AG70" si="17">ROUND(_xlfn.XLOOKUP(AA67,$R:$R,$S:$S,0),3)</f>
+        <f t="shared" ref="AG67:AG70" si="33">ROUND(_xlfn.XLOOKUP(AA67,$R:$R,$S:$S,0),3)</f>
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="AH67" s="6"/>
       <c r="AJ67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM67" t="str">
-        <f t="shared" ref="AM67:AM70" si="18">IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <f t="shared" ref="AM67:AM70" si="34">IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15760,29 +15800,29 @@
         <v>281</v>
       </c>
       <c r="AD68" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.29199999999999998</v>
       </c>
       <c r="AE68" s="6"/>
       <c r="AF68" s="6"/>
       <c r="AG68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.46</v>
       </c>
       <c r="AH68" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-0.24399999999999999</v>
       </c>
       <c r="AJ68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AM68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> ***</v>
       </c>
       <c r="AN68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15804,21 +15844,21 @@
       </c>
       <c r="AD69" s="6"/>
       <c r="AE69" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="AF69" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>-0.39700000000000002</v>
       </c>
       <c r="AG69" s="6"/>
       <c r="AH69" s="6"/>
       <c r="AK69" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -15842,29 +15882,29 @@
         <v>273</v>
       </c>
       <c r="AD70" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>-0.13400000000000001</v>
       </c>
       <c r="AE70" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>-0.112</v>
       </c>
       <c r="AF70" s="6"/>
       <c r="AG70" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>-0.52</v>
       </c>
       <c r="AH70" s="6"/>
       <c r="AJ70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AK70" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> *  </v>
       </c>
       <c r="AM70" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
@@ -17454,18 +17494,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:G30">
-    <cfRule type="notContainsText" dxfId="5" priority="5" stopIfTrue="1" operator="notContains" text="~*">
+    <cfRule type="notContainsText" dxfId="11" priority="5" stopIfTrue="1" operator="notContains" text="~*">
       <formula>ISERROR(SEARCH("~*",C3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:P25">
-    <cfRule type="notContainsText" dxfId="3" priority="3" stopIfTrue="1" operator="notContains" text="~*">
-      <formula>ISERROR(SEARCH("~*",K3))</formula>
+  <conditionalFormatting sqref="C34:G47">
+    <cfRule type="notContainsText" dxfId="9" priority="1" stopIfTrue="1" operator="notContains" text="~*">
+      <formula>ISERROR(SEARCH("~*",C34))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:G47">
-    <cfRule type="notContainsText" dxfId="1" priority="1" stopIfTrue="1" operator="notContains" text="~*">
-      <formula>ISERROR(SEARCH("~*",C34))</formula>
+  <conditionalFormatting sqref="K3:P25">
+    <cfRule type="notContainsText" dxfId="7" priority="3" stopIfTrue="1" operator="notContains" text="~*">
+      <formula>ISERROR(SEARCH("~*",K3))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17485,6 +17525,18 @@
           <xm:sqref>C3:G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{EC728813-6E81-4ED0-AD1A-9ABF820F9D34}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C34)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="5" tint="-0.499984740745262"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C34:G47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{CFEB121A-C27D-4E33-89B5-502A2A972DE7}">
             <xm:f>NOT(ISERROR(SEARCH("-",K3)))</xm:f>
             <xm:f>"-"</xm:f>
@@ -17496,8 +17548,6392 @@
           </x14:cfRule>
           <xm:sqref>K3:P25</xm:sqref>
         </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A8EA12-5F72-48CF-AA6F-0136D3BEB8ED}">
+  <dimension ref="A1:AN215"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="86.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="S2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T2" t="s">
+        <v>297</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>6</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2">
+        <v>5</v>
+      </c>
+      <c r="AH2">
+        <v>6</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
+      <c r="AL2">
+        <v>4</v>
+      </c>
+      <c r="AM2">
+        <v>5</v>
+      </c>
+      <c r="AN2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:G21" si="0">TEXT(AD3,"0.000")&amp;AJ3</f>
+        <v xml:space="preserve">-1.187 *  </v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-2.487 ***</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-2.496 ***</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-2.595 ***</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-3.475 ***</v>
+      </c>
+      <c r="I3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f t="shared" ref="K3:L18" si="1">TEXT(AD31,"0.000")&amp;AJ31</f>
+        <v>0.356 ***</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.932 ***</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>-1.1866351201785501</v>
+      </c>
+      <c r="T3">
+        <v>7.5656034738799893E-2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="6">
+        <f t="shared" ref="AD3:AH29" si="2">ROUND(_xlfn.XLOOKUP(X3,$R:$R,$S:$S,0),3)</f>
+        <v>-1.1870000000000001</v>
+      </c>
+      <c r="AE3" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.4870000000000001</v>
+      </c>
+      <c r="AF3" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.496</v>
+      </c>
+      <c r="AG3" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.5950000000000002</v>
+      </c>
+      <c r="AH3" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.4750000000000001</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" ref="AJ3:AN29" si="3">IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X3,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.173    </v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.449 ** </v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.036    </v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.151    </v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.409    </v>
+      </c>
+      <c r="I4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.429 ***</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.893 ***</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>-2.4873324848213598</v>
+      </c>
+      <c r="T4" s="1">
+        <v>8.6691057543664098E-7</v>
+      </c>
+      <c r="X4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="AE4" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="AF4" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="AG4" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.151</v>
+      </c>
+      <c r="AH4" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.40899999999999997</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f t="shared" ref="AJ4:AJ29" si="4">IF(_xlfn.XLOOKUP(X4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK4" t="str">
+        <f t="shared" ref="AK4:AK29" si="5">IF(_xlfn.XLOOKUP(Y4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL4" t="str">
+        <f t="shared" ref="AL4:AL29" si="6">IF(_xlfn.XLOOKUP(Z4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM4" t="str">
+        <f t="shared" ref="AM4:AM29" si="7">IF(_xlfn.XLOOKUP(AA4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN4" t="str">
+        <f t="shared" ref="AN4:AN29" si="8">IF(_xlfn.XLOOKUP(AB4,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB4,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB4,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.103    </v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.014    </v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.238    </v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.155    </v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.202    </v>
+      </c>
+      <c r="I5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.439 ***</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.895 ***</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>-2.4957980594459999</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2.46921087351248E-5</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="AE5" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.4E-2</v>
+      </c>
+      <c r="AF5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AG5" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.155</v>
+      </c>
+      <c r="AH5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN5" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.162    </v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.191    </v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.549 ** </v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.171    </v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.250    </v>
+      </c>
+      <c r="I6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.525 ***</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.836 ***</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>-2.5951109144963</v>
+      </c>
+      <c r="T6">
+        <v>4.4399983438002597E-3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AE6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.191</v>
+      </c>
+      <c r="AF6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AG6" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.17100000000000001</v>
+      </c>
+      <c r="AH6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="AJ6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL6" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AM6" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN6" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.080    </v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.657 ***</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.006    </v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.037    </v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.339    </v>
+      </c>
+      <c r="I7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.431 ***</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.899 ***</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>-3.4751991323443598</v>
+      </c>
+      <c r="T7">
+        <v>2.7633249039017401E-3</v>
+      </c>
+      <c r="X7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD7" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.08</v>
+      </c>
+      <c r="AE7" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.65700000000000003</v>
+      </c>
+      <c r="AF7" s="6">
+        <f t="shared" si="2"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AG7" s="6">
+        <f t="shared" si="2"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AH7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM7" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.256    </v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.363    </v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.219    </v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.165    </v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.393    </v>
+      </c>
+      <c r="I8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.819 ***</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.509 ***</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>-0.17313984891452</v>
+      </c>
+      <c r="T8">
+        <v>0.31931399468593202</v>
+      </c>
+      <c r="X8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.25600000000000001</v>
+      </c>
+      <c r="AE8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AF8" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.219</v>
+      </c>
+      <c r="AG8" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="AH8" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.39300000000000002</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK8" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.445    </v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.524 ** </v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.639 *  </v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.568    </v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.791    </v>
+      </c>
+      <c r="I9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.624 ***</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.758 ***</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>-0.103193011450617</v>
+      </c>
+      <c r="T9">
+        <v>0.39103680203216101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AE9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="AF9" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.63900000000000001</v>
+      </c>
+      <c r="AG9" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.56799999999999995</v>
+      </c>
+      <c r="AH9" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.79100000000000004</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN9" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.432    </v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.638 ***</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.007    </v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.187    </v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.390    </v>
+      </c>
+      <c r="I10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.390 ***</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.918 ***</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>-0.44897593040532002</v>
+      </c>
+      <c r="T10">
+        <v>3.4147139990190402E-2</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.432</v>
+      </c>
+      <c r="AE10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="AF10" s="6">
+        <f t="shared" si="2"/>
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AG10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.187</v>
+      </c>
+      <c r="AH10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.39</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM10" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN10" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.057    </v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.767 ***</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.482 ** </v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.207    </v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.295    </v>
+      </c>
+      <c r="I11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.545 ***</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.822 ***</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>-1.3924173184319001E-2</v>
+      </c>
+      <c r="T11">
+        <v>0.47333430370673502</v>
+      </c>
+      <c r="X11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AE11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="AF11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AG11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AH11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AM11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN11" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.336    </v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.345 *  </v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.925 ***</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.460    </v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.712 *  </v>
+      </c>
+      <c r="I12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.566 ***</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.818 ***</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>-3.6051165765628598E-2</v>
+      </c>
+      <c r="T12">
+        <v>0.44550479982283198</v>
+      </c>
+      <c r="X12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AE12" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="AF12" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.92500000000000004</v>
+      </c>
+      <c r="AG12" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.46</v>
+      </c>
+      <c r="AH12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM12" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN12" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.445    </v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.480 ***</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.247    </v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>TEXT(AG13,"0.000")&amp;AM13</f>
+        <v xml:space="preserve">-0.479 *  </v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.395    </v>
+      </c>
+      <c r="I13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.352 ***</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.930 ***</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="R13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>0.23811611727961701</v>
+      </c>
+      <c r="T13">
+        <v>0.17432828413061699</v>
+      </c>
+      <c r="X13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD13" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.44500000000000001</v>
+      </c>
+      <c r="AE13" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.48</v>
+      </c>
+      <c r="AF13" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.247</v>
+      </c>
+      <c r="AG13" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.47899999999999998</v>
+      </c>
+      <c r="AH13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM13" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AN13" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.016    </v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-1.046 ***</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.417 *  </v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.388    </v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.512    </v>
+      </c>
+      <c r="I14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.485 ***</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.862 ***</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="R14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>-0.151047372774122</v>
+      </c>
+      <c r="T14">
+        <v>0.353343000743365</v>
+      </c>
+      <c r="X14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD14" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="AE14" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.046</v>
+      </c>
+      <c r="AF14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="AG14" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.38800000000000001</v>
+      </c>
+      <c r="AH14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK14" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL14" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AM14" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN14" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.270    </v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.623 ** </v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.837 ***</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.315    </v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.427    </v>
+      </c>
+      <c r="I15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.453 ***</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.879 ***</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="R15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <v>-0.154621002476481</v>
+      </c>
+      <c r="T15">
+        <v>0.34713889592694902</v>
+      </c>
+      <c r="X15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="AE15" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.623</v>
+      </c>
+      <c r="AF15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="AG15" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.315</v>
+      </c>
+      <c r="AH15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL15" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM15" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.740 ** </v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.854 ***</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.353 ***</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.068 ***</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.201 ***</v>
+      </c>
+      <c r="I16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.566 ***</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.806 ***</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16">
+        <v>-0.40873240951300299</v>
+      </c>
+      <c r="T16">
+        <v>0.172107805841727</v>
+      </c>
+      <c r="X16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AE16" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="AF16" s="6">
+        <f t="shared" si="2"/>
+        <v>1.353</v>
+      </c>
+      <c r="AG16" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="AH16" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="AJ16" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AK16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM16" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN16" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.207    </v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.448 ** </v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.543 ** </v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.305    </v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.023    </v>
+      </c>
+      <c r="I17" t="s">
+        <v>212</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.636 ***</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.765 ***</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <v>0.201762729483868</v>
+      </c>
+      <c r="T17">
+        <v>0.30786496555445902</v>
+      </c>
+      <c r="X17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="AE17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AF17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="AG17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AH17" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK17" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL17" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AM17" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN17" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.015    </v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.446 *  </v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.132    </v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.586    </v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.234    </v>
+      </c>
+      <c r="I18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.345 ***</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.932 ***</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <v>0.16186424231469701</v>
+      </c>
+      <c r="T18">
+        <v>0.33217249022463702</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD18" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AF18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AG18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="AH18" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="AJ18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.245    </v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.479 ***</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.830 ***</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.227    </v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.425    </v>
+      </c>
+      <c r="I19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f t="shared" ref="K19:L25" si="9">TEXT(AD47,"0.000")&amp;AJ47</f>
+        <v>0.297 ***</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.953 ***</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19">
+        <v>0.19131377517289999</v>
+      </c>
+      <c r="T19">
+        <v>0.19110304816791199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD19" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.245</v>
+      </c>
+      <c r="AE19" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="AF19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.83</v>
+      </c>
+      <c r="AG19" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="AH19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AJ19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK19" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL19" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM19" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN19" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.779 ** </v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.332 ***</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.733 ** </v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.202    </v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.134    </v>
+      </c>
+      <c r="I20" t="s">
+        <v>215</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.417 ***</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.906 ***</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <v>0.54932885465574199</v>
+      </c>
+      <c r="T20">
+        <v>1.1918755052185599E-2</v>
+      </c>
+      <c r="X20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD20" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.77900000000000003</v>
+      </c>
+      <c r="AE20" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="AF20" s="6">
+        <f t="shared" si="2"/>
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AG20" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="AH20" s="6">
+        <f t="shared" si="2"/>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AJ20" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AK20" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL20" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AM20" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN20" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.351    </v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.264    </v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.741 ***</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.064    </v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">-0.014    </v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.603 ***</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.792 ***</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21">
+        <v>-0.170935999663969</v>
+      </c>
+      <c r="T21">
+        <v>0.31157710930770799</v>
+      </c>
+      <c r="X21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD21" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.35099999999999998</v>
+      </c>
+      <c r="AE21" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="AF21" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.74099999999999999</v>
+      </c>
+      <c r="AG21" s="6">
+        <f t="shared" si="2"/>
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="AH21" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.4E-2</v>
+      </c>
+      <c r="AJ21" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK21" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL21" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM21" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN21" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" ref="C22:G29" si="10">TEXT(AD22,"0.000")&amp;AJ22</f>
+        <v xml:space="preserve">-0.088    </v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.083    </v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.112    </v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.086    </v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.086    </v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.806 ***</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.530 ***</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22">
+        <v>0.24977110927788099</v>
+      </c>
+      <c r="T22">
+        <v>0.29253066605516298</v>
+      </c>
+      <c r="X22" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD22" s="6">
+        <f t="shared" si="2"/>
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="AE22" s="6">
+        <f t="shared" si="2"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AF22" s="6">
+        <f t="shared" si="2"/>
+        <v>0.112</v>
+      </c>
+      <c r="AG22" s="6">
+        <f t="shared" si="2"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AH22" s="6">
+        <f t="shared" si="2"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AJ22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK22" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL22" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.032    </v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.054    </v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.012    </v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.099    </v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.117    </v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.534 ***</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.840 ***</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="R23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>-7.9951779906451095E-2</v>
+      </c>
+      <c r="T23">
+        <v>0.422346050688161</v>
+      </c>
+      <c r="X23" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD23" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="AE23" s="6">
+        <f t="shared" si="2"/>
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="AF23" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="AG23" s="6">
+        <f t="shared" si="2"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AH23" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="AJ23" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK23" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL23" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM23" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN23" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.021    </v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.095 ** </v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.024    </v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.154 ** </v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.062    </v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>-0.352 ***</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.930 ***</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="R24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24">
+        <v>-0.65729882150104102</v>
+      </c>
+      <c r="T24">
+        <v>6.2154258314165399E-3</v>
+      </c>
+      <c r="X24" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD24" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AE24" s="6">
+        <f t="shared" si="2"/>
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="AF24" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="AG24" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.154</v>
+      </c>
+      <c r="AH24" s="6">
+        <f t="shared" si="2"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="AJ24" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK24" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL24" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM24" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AN24" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.205    </v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.202 *  </v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>-0.369 ***</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.151    </v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.159    </v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.232 ***</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>0.971 ***</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="R25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25">
+        <v>-5.53630432795864E-3</v>
+      </c>
+      <c r="T25">
+        <v>0.49240555012972698</v>
+      </c>
+      <c r="X25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD25" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="AE25" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="AF25" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="AG25" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.151</v>
+      </c>
+      <c r="AH25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.159</v>
+      </c>
+      <c r="AJ25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK25" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AL25" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM25" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN25" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.203    </v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.096    </v>
+      </c>
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.115    </v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.139    </v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.137    </v>
+      </c>
+      <c r="R26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26">
+        <v>3.7325544071192603E-2</v>
+      </c>
+      <c r="T26">
+        <v>0.46463873286282997</v>
+      </c>
+      <c r="X26" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AE26" s="6">
+        <f t="shared" si="2"/>
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="AF26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.115</v>
+      </c>
+      <c r="AG26" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="AH26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AJ26" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK26" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL26" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM26" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN26" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.166    </v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.019    </v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.002    </v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.168    </v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.181    </v>
+      </c>
+      <c r="R27" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27">
+        <v>0.33907332792657902</v>
+      </c>
+      <c r="T27">
+        <v>0.23559705314465501</v>
+      </c>
+      <c r="X27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD27" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="AE27" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="AF27" s="6">
+        <f t="shared" si="2"/>
+        <v>-2E-3</v>
+      </c>
+      <c r="AG27" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="AH27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AJ27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK27" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM27" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN27" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.533 ** </v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>-0.514 ***</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>-0.498 ***</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.342    </v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.643 ** </v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28">
+        <v>-0.25616994444411401</v>
+      </c>
+      <c r="T28">
+        <v>0.32710396882166498</v>
+      </c>
+      <c r="X28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD28" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.53300000000000003</v>
+      </c>
+      <c r="AE28" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.51400000000000001</v>
+      </c>
+      <c r="AF28" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.498</v>
+      </c>
+      <c r="AG28" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="AH28" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.64300000000000002</v>
+      </c>
+      <c r="AJ28" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AK28" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL28" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM28" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN28" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0.031    </v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.065    </v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.097    </v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.099    </v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">-0.137    </v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29">
+        <v>0.36271306778839202</v>
+      </c>
+      <c r="T29">
+        <v>0.14550531310825801</v>
+      </c>
+      <c r="X29" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD29" s="6">
+        <f t="shared" si="2"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="AE29" s="6">
+        <f t="shared" si="2"/>
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="AF29" s="6">
+        <f t="shared" si="2"/>
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="AG29" s="6">
+        <f t="shared" si="2"/>
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AH29" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="AJ29" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AK29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL29" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AM29" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AN29" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="R30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30">
+        <v>-0.21892027485711199</v>
+      </c>
+      <c r="T30">
+        <v>0.28216799839076001</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31">
+        <v>-0.16519710854379799</v>
+      </c>
+      <c r="T31">
+        <v>0.384663845759604</v>
+      </c>
+      <c r="X31" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD31" s="6">
+        <f t="shared" ref="AD31:AE53" si="11">ROUND(_xlfn.XLOOKUP(X31,$R:$R,$S:$S,0),3)</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AE31" s="6">
+        <f t="shared" si="11"/>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AJ31" t="str">
+        <f t="shared" ref="AJ31:AK53" si="12">IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X31,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK31" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32">
+        <v>-0.39306959447753098</v>
+      </c>
+      <c r="T32">
+        <v>0.28736938861186401</v>
+      </c>
+      <c r="X32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD32" s="6">
+        <f t="shared" si="11"/>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AE32" s="6">
+        <f t="shared" si="11"/>
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="AJ32" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK32" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="R33" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33">
+        <v>0.44468639095333401</v>
+      </c>
+      <c r="T33">
+        <v>0.14018447568341</v>
+      </c>
+      <c r="X33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD33" s="6">
+        <f t="shared" si="11"/>
+        <v>0.439</v>
+      </c>
+      <c r="AE33" s="6">
+        <f t="shared" si="11"/>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="AJ33" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK33" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f>IF(AD57="","",TEXT(AD57,"0.000")&amp;AJ57)</f>
+        <v xml:space="preserve">-0.202 ** </v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" ref="D34:G47" si="13">IF(AE57="","",TEXT(AE57,"0.000")&amp;AK57)</f>
+        <v xml:space="preserve">0.260 ** </v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.227 ** </v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>0.235 ***</v>
+      </c>
+      <c r="R34" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34">
+        <v>0.52396032961959305</v>
+      </c>
+      <c r="T34">
+        <v>2.7373640584303398E-2</v>
+      </c>
+      <c r="X34" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD34" s="6">
+        <f t="shared" si="11"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AE34" s="6">
+        <f t="shared" si="11"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="AJ34" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK34" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" ref="C35:C47" si="14">IF(AD58="","",TEXT(AD58,"0.000")&amp;AJ58)</f>
+        <v>0.464 ***</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>-0.325 ***</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>-0.239 ***</v>
+      </c>
+      <c r="R35" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35">
+        <v>-0.63915543333072</v>
+      </c>
+      <c r="T35">
+        <v>7.1987492640923995E-2</v>
+      </c>
+      <c r="X35" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD35" s="6">
+        <f t="shared" si="11"/>
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AE35" s="6">
+        <f t="shared" si="11"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AJ35" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK35" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>-0.227 ***</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>0.308 ***</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>0.243 ***</v>
+      </c>
+      <c r="R36" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36">
+        <v>-0.568215752142055</v>
+      </c>
+      <c r="T36">
+        <v>0.13397442380799601</v>
+      </c>
+      <c r="X36" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD36" s="6">
+        <f t="shared" si="11"/>
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AE36" s="6">
+        <f t="shared" si="11"/>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="AJ36" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK36" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>-0.200 ***</v>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">-0.140 ** </v>
+      </c>
+      <c r="R37" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37">
+        <v>-0.79144427275761098</v>
+      </c>
+      <c r="T37">
+        <v>0.12156048118827401</v>
+      </c>
+      <c r="X37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD37" s="6">
+        <f t="shared" si="11"/>
+        <v>0.624</v>
+      </c>
+      <c r="AE37" s="6">
+        <f t="shared" si="11"/>
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AJ37" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK37" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>0.355 ***</v>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>0.404 ***</v>
+      </c>
+      <c r="E38" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>0.293 ***</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="R38" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38">
+        <v>0.43200699817111599</v>
+      </c>
+      <c r="T38">
+        <v>0.13432216613403999</v>
+      </c>
+      <c r="X38" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD38" s="6">
+        <f t="shared" si="11"/>
+        <v>0.39</v>
+      </c>
+      <c r="AE38" s="6">
+        <f t="shared" si="11"/>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="AJ38" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK38" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E39" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>-0.356 ***</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R39" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39">
+        <v>0.63755318212439505</v>
+      </c>
+      <c r="T39">
+        <v>3.4633425931768201E-3</v>
+      </c>
+      <c r="X39" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD39" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="AE39" s="6">
+        <f t="shared" si="11"/>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="AJ39" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK39" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>-0.390 ***</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">0.106 *  </v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>0.530 ***</v>
+      </c>
+      <c r="R40" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40">
+        <v>-6.9356496956998696E-3</v>
+      </c>
+      <c r="T40">
+        <v>0.48950334117326</v>
+      </c>
+      <c r="X40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD40" s="6">
+        <f t="shared" si="11"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AE40" s="6">
+        <f t="shared" si="11"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AJ40" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK40" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">-0.148 ** </v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R41" t="s">
+        <v>38</v>
+      </c>
+      <c r="S41">
+        <v>0.18683958651216501</v>
+      </c>
+      <c r="T41">
+        <v>0.302945793982627</v>
+      </c>
+      <c r="X41" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD41" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="AE41" s="6">
+        <f t="shared" si="11"/>
+        <v>0.93</v>
+      </c>
+      <c r="AJ41" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK41" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E42" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>0.235 ***</v>
+      </c>
+      <c r="R42" t="s">
+        <v>39</v>
+      </c>
+      <c r="S42">
+        <v>0.39044729939818701</v>
+      </c>
+      <c r="T42">
+        <v>0.17510054003342901</v>
+      </c>
+      <c r="X42" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD42" s="6">
+        <f t="shared" si="11"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AE42" s="6">
+        <f t="shared" si="11"/>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AJ42" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK42" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D43" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>-0.330 ***</v>
+      </c>
+      <c r="R43" t="s">
+        <v>40</v>
+      </c>
+      <c r="S43">
+        <v>5.6818467663811802E-2</v>
+      </c>
+      <c r="T43">
+        <v>0.448092694440061</v>
+      </c>
+      <c r="X43" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD43" s="6">
+        <f t="shared" si="11"/>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AE43" s="6">
+        <f t="shared" si="11"/>
+        <v>0.879</v>
+      </c>
+      <c r="AJ43" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK43" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>0.225 ***</v>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E44" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>-0.009 ***</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R44" t="s">
+        <v>41</v>
+      </c>
+      <c r="S44">
+        <v>0.76651737782254603</v>
+      </c>
+      <c r="T44" s="1">
+        <v>5.1678817835853997E-4</v>
+      </c>
+      <c r="X44" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD44" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="AE44" s="6">
+        <f t="shared" si="11"/>
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AJ44" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK44" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f>IF(AD68="","",TEXT(AD68,"0.000")&amp;AJ68)</f>
+        <v>0.292 ***</v>
+      </c>
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>0.460 ***</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>-0.242 ***</v>
+      </c>
+      <c r="R45" t="s">
+        <v>42</v>
+      </c>
+      <c r="S45">
+        <v>0.481573248742733</v>
+      </c>
+      <c r="T45">
+        <v>2.4019979436417E-2</v>
+      </c>
+      <c r="X45" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD45" s="6">
+        <f t="shared" si="11"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AE45" s="6">
+        <f t="shared" si="11"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="AJ45" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK45" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">-0.041    </v>
+      </c>
+      <c r="E46" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>-0.397 ***</v>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R46" t="s">
+        <v>43</v>
+      </c>
+      <c r="S46">
+        <v>0.20691968658241899</v>
+      </c>
+      <c r="T46">
+        <v>0.30132619726012</v>
+      </c>
+      <c r="X46" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD46" s="6">
+        <f t="shared" si="11"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AE46" s="6">
+        <f t="shared" si="11"/>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AJ46" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK46" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">-0.135 *  </v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">-0.113 *  </v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F47" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>-0.520 ***</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R47" t="s">
+        <v>44</v>
+      </c>
+      <c r="S47">
+        <v>0.29511503862758698</v>
+      </c>
+      <c r="T47">
+        <v>0.23063594248991501</v>
+      </c>
+      <c r="X47" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD47" s="6">
+        <f t="shared" si="11"/>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AE47" s="6">
+        <f t="shared" si="11"/>
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AJ47" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK47" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>45</v>
+      </c>
+      <c r="S48">
+        <v>0.33627167059434698</v>
+      </c>
+      <c r="T48">
+        <v>0.163586339967878</v>
+      </c>
+      <c r="X48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD48" s="6">
+        <f t="shared" si="11"/>
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="AE48" s="6">
+        <f t="shared" si="11"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="AJ48" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK48" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="49" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>46</v>
+      </c>
+      <c r="S49">
+        <v>-0.34493050176047002</v>
+      </c>
+      <c r="T49">
+        <v>6.51296870944124E-2</v>
+      </c>
+      <c r="X49" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD49" s="6">
+        <f t="shared" si="11"/>
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="AE49" s="6">
+        <f t="shared" si="11"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AJ49" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK49" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="50" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>47</v>
+      </c>
+      <c r="S50">
+        <v>-0.92467227857138901</v>
+      </c>
+      <c r="T50">
+        <v>1.82767071752076E-3</v>
+      </c>
+      <c r="X50" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD50" s="6">
+        <f t="shared" si="11"/>
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AE50" s="6">
+        <f t="shared" si="11"/>
+        <v>0.53</v>
+      </c>
+      <c r="AJ50" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK50" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="51" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
+        <v>48</v>
+      </c>
+      <c r="S51">
+        <v>-0.45969233531728199</v>
+      </c>
+      <c r="T51">
+        <v>0.11265218919948899</v>
+      </c>
+      <c r="X51" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD51" s="6">
+        <f t="shared" si="11"/>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AE51" s="6">
+        <f t="shared" si="11"/>
+        <v>0.84</v>
+      </c>
+      <c r="AJ51" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK51" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="52" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
+        <v>49</v>
+      </c>
+      <c r="S52">
+        <v>0.71186735946805502</v>
+      </c>
+      <c r="T52">
+        <v>5.1941797792623902E-2</v>
+      </c>
+      <c r="X52" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD52" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="AE52" s="6">
+        <f t="shared" si="11"/>
+        <v>0.93</v>
+      </c>
+      <c r="AJ52" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK52" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="53" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
+        <v>50</v>
+      </c>
+      <c r="S53">
+        <v>-0.44549876474132599</v>
+      </c>
+      <c r="T53">
+        <v>0.105588644248585</v>
+      </c>
+      <c r="X53" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD53" s="6">
+        <f t="shared" si="11"/>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AE53" s="6">
+        <f t="shared" si="11"/>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AJ53" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK53" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="54" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>51</v>
+      </c>
+      <c r="S54">
+        <v>-0.47966082469611498</v>
+      </c>
+      <c r="T54">
+        <v>9.6239864024710801E-3</v>
+      </c>
+      <c r="AD54" t="str">
+        <f>IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AE54" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AF54" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AG54" t="str">
+        <f>IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AH54" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB29,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="55" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S55">
+        <v>-0.24671681688167801</v>
+      </c>
+      <c r="T55">
+        <v>0.120284300966711</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>53</v>
+      </c>
+      <c r="S56">
+        <v>-0.47861180066603398</v>
+      </c>
+      <c r="T56">
+        <v>7.6639084950253997E-2</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <v>3</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R57" t="s">
+        <v>54</v>
+      </c>
+      <c r="S57">
+        <v>0.39526358884149099</v>
+      </c>
+      <c r="T57">
+        <v>0.18337019353150699</v>
+      </c>
+      <c r="X57" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD57" s="6">
+        <f>ROUND(_xlfn.XLOOKUP(X57,$R:$R,$S:$S,0),3)</f>
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="AE57" s="6">
+        <f t="shared" ref="AE57:AH70" si="15">ROUND(_xlfn.XLOOKUP(Y57,$R:$R,$S:$S,0),3)</f>
+        <v>0.26</v>
+      </c>
+      <c r="AF57" s="6">
+        <f t="shared" si="15"/>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6">
+        <f t="shared" si="15"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AJ57" t="str">
+        <f>IF(_xlfn.XLOOKUP(X57,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X57,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X57,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AK57" t="str">
+        <f>IF(_xlfn.XLOOKUP(Y57,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Y57,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Y57,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AL57" t="str">
+        <f>IF(_xlfn.XLOOKUP(Z57,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z57,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z57,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ** </v>
+      </c>
+      <c r="AN57" t="str">
+        <f>IF(_xlfn.XLOOKUP(AB57,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB57,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB57,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="58" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R58" t="s">
+        <v>55</v>
+      </c>
+      <c r="S58">
+        <v>1.5933183761537399E-2</v>
+      </c>
+      <c r="T58">
+        <v>0.48243008077284399</v>
+      </c>
+      <c r="X58" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD58" s="6">
+        <f t="shared" ref="AD58:AD70" si="16">ROUND(_xlfn.XLOOKUP(X58,$R:$R,$S:$S,0),3)</f>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AE58" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.32500000000000001</v>
+      </c>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="AJ58" t="str">
+        <f t="shared" ref="AJ58:AK70" si="17">IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(X58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK58" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN58" t="str">
+        <f t="shared" ref="AN58:AN68" si="18">IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AB58,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="59" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>56</v>
+      </c>
+      <c r="S59">
+        <v>-1.04631160794792</v>
+      </c>
+      <c r="T59" s="1">
+        <v>2.3723220697879901E-6</v>
+      </c>
+      <c r="X59" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD59" s="6">
+        <f t="shared" si="16"/>
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6">
+        <f t="shared" ref="AF59:AF69" si="19">ROUND(_xlfn.XLOOKUP(Z59,$R:$R,$S:$S,0),3)</f>
+        <v>0.308</v>
+      </c>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6">
+        <f t="shared" si="15"/>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AJ59" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL59" t="str">
+        <f t="shared" ref="AL59:AL69" si="20">IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(Z59,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN59" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="60" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>57</v>
+      </c>
+      <c r="S60">
+        <v>0.41676089555306201</v>
+      </c>
+      <c r="T60">
+        <v>5.1679798459942097E-2</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.2</v>
+      </c>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AK60" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN60" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+    </row>
+    <row r="61" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>58</v>
+      </c>
+      <c r="S61">
+        <v>-0.38838220602085599</v>
+      </c>
+      <c r="T61">
+        <v>0.136051255186974</v>
+      </c>
+      <c r="X61" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD61" s="6">
+        <f t="shared" si="16"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AE61" s="6">
+        <f t="shared" si="15"/>
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AF61" s="6">
+        <f t="shared" si="19"/>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AJ61" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AK61" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL61" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="62" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R62" t="s">
+        <v>59</v>
+      </c>
+      <c r="S62">
+        <v>0.51242652288366197</v>
+      </c>
+      <c r="T62">
+        <v>0.116114958330652</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="6">
+        <f t="shared" si="19"/>
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="6"/>
+      <c r="AL62" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="63" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R63" t="s">
+        <v>60</v>
+      </c>
+      <c r="S63">
+        <v>0.27033335432050398</v>
+      </c>
+      <c r="T63">
+        <v>0.273349429117899</v>
+      </c>
+      <c r="X63" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD63" s="6">
+        <f t="shared" si="16"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6">
+        <f t="shared" si="19"/>
+        <v>0.106</v>
+      </c>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6">
+        <f t="shared" si="15"/>
+        <v>0.53</v>
+      </c>
+      <c r="AJ63" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AL63" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AN63" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="64" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R64" t="s">
+        <v>61</v>
+      </c>
+      <c r="S64">
+        <v>-0.62290181210794604</v>
+      </c>
+      <c r="T64">
+        <v>1.4909820959137799E-2</v>
+      </c>
+      <c r="X64" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD64" s="6">
+        <f t="shared" si="16"/>
+        <v>-0.14799999999999999</v>
+      </c>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AJ64" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> ** </v>
+      </c>
+    </row>
+    <row r="65" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R65" t="s">
+        <v>62</v>
+      </c>
+      <c r="S65">
+        <v>0.83711450600570503</v>
+      </c>
+      <c r="T65">
+        <v>3.1344639947012902E-3</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6">
+        <f t="shared" si="15"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AN65" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="66" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R66" t="s">
+        <v>63</v>
+      </c>
+      <c r="S66">
+        <v>-0.31502502627971601</v>
+      </c>
+      <c r="T66">
+        <v>0.26171855660405202</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.33</v>
+      </c>
+      <c r="AN66" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="67" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R67" t="s">
+        <v>64</v>
+      </c>
+      <c r="S67">
+        <v>0.426732400726552</v>
+      </c>
+      <c r="T67">
+        <v>0.21487477152338999</v>
+      </c>
+      <c r="X67" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD67" s="6">
+        <f t="shared" si="16"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6">
+        <f t="shared" ref="AG67:AG70" si="21">ROUND(_xlfn.XLOOKUP(AA67,$R:$R,$S:$S,0),3)</f>
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="AH67" s="6"/>
+      <c r="AJ67" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM67" t="str">
+        <f t="shared" ref="AM67:AM70" si="22">IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.01, " ***",IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.05, " ** ",IF(_xlfn.XLOOKUP(AA77,$R:$R,$T:$T,0)&lt;0.1, " *  ","    ")))</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="68" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R68" t="s">
+        <v>65</v>
+      </c>
+      <c r="S68">
+        <v>0.73967104237438697</v>
+      </c>
+      <c r="T68">
+        <v>3.2943893564670299E-2</v>
+      </c>
+      <c r="X68" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD68" s="6">
+        <f t="shared" si="16"/>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6">
+        <f t="shared" si="21"/>
+        <v>0.46</v>
+      </c>
+      <c r="AH68" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="AJ68" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AM68" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+      <c r="AN68" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="69" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R69" t="s">
+        <v>66</v>
+      </c>
+      <c r="S69">
+        <v>1.8543911403323801</v>
+      </c>
+      <c r="T69" s="1">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6">
+        <f t="shared" si="15"/>
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="AF69" s="6">
+        <f t="shared" si="19"/>
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AK69" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AL69" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="70" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R70" t="s">
+        <v>67</v>
+      </c>
+      <c r="S70">
+        <v>1.35285963908814</v>
+      </c>
+      <c r="T70" s="1">
+        <v>2.8528124470517101E-6</v>
+      </c>
+      <c r="X70" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD70" s="6">
+        <f t="shared" si="16"/>
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="AE70" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.113</v>
+      </c>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6">
+        <f t="shared" si="21"/>
+        <v>-0.52</v>
+      </c>
+      <c r="AH70" s="6"/>
+      <c r="AJ70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AK70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> *  </v>
+      </c>
+      <c r="AM70" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="71" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R71" t="s">
+        <v>68</v>
+      </c>
+      <c r="S71">
+        <v>1.0682627595415199</v>
+      </c>
+      <c r="T71">
+        <v>1.2730818184917201E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>69</v>
+      </c>
+      <c r="S72">
+        <v>1.2014534149990499</v>
+      </c>
+      <c r="T72">
+        <v>9.4290167525923306E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R73" t="s">
+        <v>70</v>
+      </c>
+      <c r="S73">
+        <v>-0.20716989998977001</v>
+      </c>
+      <c r="T73">
+        <v>0.28533265235126498</v>
+      </c>
+    </row>
+    <row r="74" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>71</v>
+      </c>
+      <c r="S74">
+        <v>0.44821687422283402</v>
+      </c>
+      <c r="T74">
+        <v>2.1325238250329299E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>72</v>
+      </c>
+      <c r="S75">
+        <v>0.54274895734401096</v>
+      </c>
+      <c r="T75">
+        <v>1.2172162295510901E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R76" t="s">
+        <v>73</v>
+      </c>
+      <c r="S76">
+        <v>0.30504337410120103</v>
+      </c>
+      <c r="T76">
+        <v>0.18416365673672</v>
+      </c>
+    </row>
+    <row r="77" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R77" t="s">
+        <v>74</v>
+      </c>
+      <c r="S77">
+        <v>2.34349005758589E-2</v>
+      </c>
+      <c r="T77">
+        <v>0.47961992481467702</v>
+      </c>
+    </row>
+    <row r="78" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R78" t="s">
+        <v>75</v>
+      </c>
+      <c r="S78">
+        <v>1.52862810115493E-2</v>
+      </c>
+      <c r="T78">
+        <v>0.487887843212719</v>
+      </c>
+    </row>
+    <row r="79" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R79" t="s">
+        <v>76</v>
+      </c>
+      <c r="S79">
+        <v>0.44558330128315699</v>
+      </c>
+      <c r="T79">
+        <v>7.8304655160492606E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R80" t="s">
+        <v>77</v>
+      </c>
+      <c r="S80">
+        <v>0.13216254042933401</v>
+      </c>
+      <c r="T80">
+        <v>0.37421791441986602</v>
+      </c>
+    </row>
+    <row r="81" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R81" t="s">
+        <v>78</v>
+      </c>
+      <c r="S81">
+        <v>0.58592490246932905</v>
+      </c>
+      <c r="T81">
+        <v>0.11634789202828</v>
+      </c>
+    </row>
+    <row r="82" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R82" t="s">
+        <v>79</v>
+      </c>
+      <c r="S82">
+        <v>-0.23400451777030301</v>
+      </c>
+      <c r="T82">
+        <v>0.345676267744632</v>
+      </c>
+    </row>
+    <row r="83" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R83" t="s">
+        <v>80</v>
+      </c>
+      <c r="S83">
+        <v>-0.24534934254937499</v>
+      </c>
+      <c r="T83">
+        <v>0.259617338105185</v>
+      </c>
+    </row>
+    <row r="84" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R84" t="s">
+        <v>81</v>
+      </c>
+      <c r="S84">
+        <v>1.47889107899706</v>
+      </c>
+      <c r="T84" s="1">
+        <v>7.6592149401699604E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R85" t="s">
+        <v>82</v>
+      </c>
+      <c r="S85">
+        <v>0.83015435554670103</v>
+      </c>
+      <c r="T85">
+        <v>9.1002406540054894E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R86" t="s">
+        <v>83</v>
+      </c>
+      <c r="S86">
+        <v>-0.22707621350023</v>
+      </c>
+      <c r="T86">
+        <v>0.30603115147608201</v>
+      </c>
+    </row>
+    <row r="87" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R87" t="s">
+        <v>84</v>
+      </c>
+      <c r="S87">
+        <v>0.425294283606648</v>
+      </c>
+      <c r="T87">
+        <v>0.22137199212946099</v>
+      </c>
+    </row>
+    <row r="88" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R88" t="s">
+        <v>85</v>
+      </c>
+      <c r="S88">
+        <v>-0.77908881876388802</v>
+      </c>
+      <c r="T88">
+        <v>3.27085318609142E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R89" t="s">
+        <v>86</v>
+      </c>
+      <c r="S89">
+        <v>1.3319277875322599</v>
+      </c>
+      <c r="T89" s="1">
+        <v>1.02949779239636E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R90" t="s">
+        <v>87</v>
+      </c>
+      <c r="S90">
+        <v>0.73274018655657203</v>
+      </c>
+      <c r="T90">
+        <v>2.45918683111233E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R91" t="s">
+        <v>88</v>
+      </c>
+      <c r="S91">
+        <v>-0.20166211137110501</v>
+      </c>
+      <c r="T91">
+        <v>0.33472978487495197</v>
+      </c>
+    </row>
+    <row r="92" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R92" t="s">
+        <v>89</v>
+      </c>
+      <c r="S92">
+        <v>0.134207729456682</v>
+      </c>
+      <c r="T92">
+        <v>0.413478466824165</v>
+      </c>
+    </row>
+    <row r="93" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R93" t="s">
+        <v>90</v>
+      </c>
+      <c r="S93">
+        <v>-0.35100042731567699</v>
+      </c>
+      <c r="T93">
+        <v>0.15996108373038101</v>
+      </c>
+    </row>
+    <row r="94" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R94" t="s">
+        <v>91</v>
+      </c>
+      <c r="S94">
+        <v>-0.26383312616534099</v>
+      </c>
+      <c r="T94">
+        <v>0.124142846290992</v>
+      </c>
+    </row>
+    <row r="95" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R95" t="s">
+        <v>92</v>
+      </c>
+      <c r="S95">
+        <v>-0.74142677461919904</v>
+      </c>
+      <c r="T95">
+        <v>2.5470350195605498E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R96" t="s">
+        <v>93</v>
+      </c>
+      <c r="S96">
+        <v>-6.3601006198176199E-2</v>
+      </c>
+      <c r="T96">
+        <v>0.43119142006311101</v>
+      </c>
+    </row>
+    <row r="97" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R97" t="s">
+        <v>94</v>
+      </c>
+      <c r="S97">
+        <v>-1.3672985736266401E-2</v>
+      </c>
+      <c r="T97">
+        <v>0.486711276727049</v>
+      </c>
+    </row>
+    <row r="98" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R98" t="s">
+        <v>235</v>
+      </c>
+      <c r="S98">
+        <v>-8.7887526649609804E-2</v>
+      </c>
+      <c r="T98">
+        <v>0.24602951178922799</v>
+      </c>
+    </row>
+    <row r="99" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R99" t="s">
+        <v>236</v>
+      </c>
+      <c r="S99">
+        <v>8.2691316820606806E-2</v>
+      </c>
+      <c r="T99">
+        <v>0.138068096811723</v>
+      </c>
+    </row>
+    <row r="100" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R100" t="s">
+        <v>237</v>
+      </c>
+      <c r="S100">
+        <v>0.111983364696095</v>
+      </c>
+      <c r="T100">
+        <v>0.103621544662419</v>
+      </c>
+    </row>
+    <row r="101" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R101" t="s">
+        <v>238</v>
+      </c>
+      <c r="S101">
+        <v>8.6125956678820295E-2</v>
+      </c>
+      <c r="T101">
+        <v>0.29238678838608401</v>
+      </c>
+    </row>
+    <row r="102" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R102" t="s">
+        <v>239</v>
+      </c>
+      <c r="S102">
+        <v>8.5596543451595605E-2</v>
+      </c>
+      <c r="T102">
+        <v>0.28526768704679301</v>
+      </c>
+    </row>
+    <row r="103" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R103" t="s">
+        <v>240</v>
+      </c>
+      <c r="S103">
+        <v>-3.1536554520102802E-2</v>
+      </c>
+      <c r="T103">
+        <v>0.39339218701588902</v>
+      </c>
+    </row>
+    <row r="104" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R104" t="s">
+        <v>241</v>
+      </c>
+      <c r="S104">
+        <v>-5.3771390057137401E-2</v>
+      </c>
+      <c r="T104">
+        <v>0.19548201617625199</v>
+      </c>
+    </row>
+    <row r="105" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R105" t="s">
+        <v>242</v>
+      </c>
+      <c r="S105">
+        <v>-1.16837335057154E-2</v>
+      </c>
+      <c r="T105">
+        <v>0.43392103313084401</v>
+      </c>
+    </row>
+    <row r="106" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R106" t="s">
+        <v>243</v>
+      </c>
+      <c r="S106">
+        <v>9.8557149744177203E-2</v>
+      </c>
+      <c r="T106">
+        <v>0.16575363528874301</v>
+      </c>
+    </row>
+    <row r="107" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R107" t="s">
+        <v>244</v>
+      </c>
+      <c r="S107">
+        <v>-0.11708888004491499</v>
+      </c>
+      <c r="T107">
+        <v>0.17675298259271</v>
+      </c>
+    </row>
+    <row r="108" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R108" t="s">
+        <v>245</v>
+      </c>
+      <c r="S108">
+        <v>2.1203518305724998E-2</v>
+      </c>
+      <c r="T108">
+        <v>0.40079512083505098</v>
+      </c>
+    </row>
+    <row r="109" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R109" t="s">
+        <v>246</v>
+      </c>
+      <c r="S109">
+        <v>-9.4502836341164201E-2</v>
+      </c>
+      <c r="T109">
+        <v>2.8390211789519899E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R110" t="s">
+        <v>247</v>
+      </c>
+      <c r="S110">
+        <v>-2.3551127701310799E-2</v>
+      </c>
+      <c r="T110">
+        <v>0.34209008419979198</v>
+      </c>
+    </row>
+    <row r="111" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R111" t="s">
+        <v>248</v>
+      </c>
+      <c r="S111">
+        <v>-0.15391610120316701</v>
+      </c>
+      <c r="T111">
+        <v>4.6079732680644997E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R112" t="s">
+        <v>249</v>
+      </c>
+      <c r="S112">
+        <v>6.1894196550500498E-2</v>
+      </c>
+      <c r="T112">
+        <v>0.29126377289470601</v>
+      </c>
+    </row>
+    <row r="113" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R113" t="s">
+        <v>250</v>
+      </c>
+      <c r="S113">
+        <v>-0.20238990269037399</v>
+      </c>
+      <c r="T113">
+        <v>2.3098935933065699E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R114" t="s">
+        <v>251</v>
+      </c>
+      <c r="S114">
+        <v>0.46431811974612303</v>
+      </c>
+      <c r="T114" s="1">
+        <v>1.90648294773332E-6</v>
+      </c>
+    </row>
+    <row r="115" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R115" t="s">
+        <v>252</v>
+      </c>
+      <c r="S115">
+        <v>-0.22695269112429001</v>
+      </c>
+      <c r="T115">
+        <v>5.0623060289215396E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R116" t="s">
+        <v>253</v>
+      </c>
+      <c r="S116">
+        <v>0.35460481078967598</v>
+      </c>
+      <c r="T116" s="1">
+        <v>3.82698714787022E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R117" t="s">
+        <v>254</v>
+      </c>
+      <c r="S117">
+        <v>-0.38976623678248201</v>
+      </c>
+      <c r="T117" s="1">
+        <v>1.3403962922931001E-6</v>
+      </c>
+    </row>
+    <row r="118" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R118" t="s">
+        <v>255</v>
+      </c>
+      <c r="S118">
+        <v>-0.14786231031253899</v>
+      </c>
+      <c r="T118">
+        <v>3.7254840560510198E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R119" t="s">
+        <v>256</v>
+      </c>
+      <c r="S119">
+        <v>0.22514963329018101</v>
+      </c>
+      <c r="T119">
+        <v>6.1105203095715901E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R120" t="s">
+        <v>257</v>
+      </c>
+      <c r="S120">
+        <v>0.29227084239295897</v>
+      </c>
+      <c r="T120" s="1">
+        <v>8.9330858600411499E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R121" t="s">
+        <v>258</v>
+      </c>
+      <c r="S121">
+        <v>-0.134875192153356</v>
+      </c>
+      <c r="T121">
+        <v>5.2181061503083902E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R122" t="s">
+        <v>259</v>
+      </c>
+      <c r="S122">
+        <v>0.26036561909289702</v>
+      </c>
+      <c r="T122">
+        <v>1.1063002083954301E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R123" t="s">
+        <v>260</v>
+      </c>
+      <c r="S123">
+        <v>-0.32456676835145198</v>
+      </c>
+      <c r="T123" s="1">
+        <v>5.1011190732175304E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R124" t="s">
+        <v>261</v>
+      </c>
+      <c r="S124">
+        <v>-0.199766334559874</v>
+      </c>
+      <c r="T124">
+        <v>6.6923706130685903E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R125" t="s">
+        <v>262</v>
+      </c>
+      <c r="S125">
+        <v>0.40380583729505398</v>
+      </c>
+      <c r="T125" s="1">
+        <v>7.3293950952901799E-7</v>
+      </c>
+    </row>
+    <row r="126" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R126" t="s">
+        <v>263</v>
+      </c>
+      <c r="S126">
+        <v>-4.1344314204773899E-2</v>
+      </c>
+      <c r="T126">
+        <v>0.29376228419628603</v>
+      </c>
+    </row>
+    <row r="127" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R127" t="s">
+        <v>264</v>
+      </c>
+      <c r="S127">
+        <v>-0.11256901307252801</v>
+      </c>
+      <c r="T127">
+        <v>9.7137066280117604E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R128" t="s">
+        <v>265</v>
+      </c>
+      <c r="S128">
+        <v>0.227491694854659</v>
+      </c>
+      <c r="T128">
+        <v>2.0424009180039102E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R129" t="s">
+        <v>266</v>
+      </c>
+      <c r="S129">
+        <v>0.307625687633171</v>
+      </c>
+      <c r="T129">
+        <v>3.1238624393896599E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R130" t="s">
+        <v>267</v>
+      </c>
+      <c r="S130">
+        <v>0.29307461892487102</v>
+      </c>
+      <c r="T130">
+        <v>5.5367779750459204E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R131" t="s">
+        <v>268</v>
+      </c>
+      <c r="S131">
+        <v>-0.35588058929350902</v>
+      </c>
+      <c r="T131">
+        <v>3.02470927656761E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R132" t="s">
+        <v>269</v>
+      </c>
+      <c r="S132">
+        <v>0.105991401076864</v>
+      </c>
+      <c r="T132">
+        <v>9.8611695158516602E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R133" t="s">
+        <v>270</v>
+      </c>
+      <c r="S133">
+        <v>-0.39705913705408602</v>
+      </c>
+      <c r="T133" s="1">
+        <v>3.0282814811322101E-7</v>
+      </c>
+    </row>
+    <row r="134" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R134" t="s">
+        <v>271</v>
+      </c>
+      <c r="S134">
+        <v>-9.3818919432223404E-3</v>
+      </c>
+      <c r="T134">
+        <v>0.46935536240579601</v>
+      </c>
+    </row>
+    <row r="135" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R135" t="s">
+        <v>272</v>
+      </c>
+      <c r="S135">
+        <v>0.45958488344556903</v>
+      </c>
+      <c r="T135" s="1">
+        <v>6.69070194926346E-5</v>
+      </c>
+    </row>
+    <row r="136" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R136" t="s">
+        <v>273</v>
+      </c>
+      <c r="S136">
+        <v>-0.52019807567589504</v>
+      </c>
+      <c r="T136" s="1">
+        <v>2.18876531712708E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R137" t="s">
+        <v>274</v>
+      </c>
+      <c r="S137">
+        <v>0.23496310627689701</v>
+      </c>
+      <c r="T137">
+        <v>6.7132977785752104E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R138" t="s">
+        <v>275</v>
+      </c>
+      <c r="S138">
+        <v>-0.23932909750060599</v>
+      </c>
+      <c r="T138">
+        <v>4.9663579956465897E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R139" t="s">
+        <v>276</v>
+      </c>
+      <c r="S139">
+        <v>-0.140006181624932</v>
+      </c>
+      <c r="T139">
+        <v>3.2401039086150198E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R140" t="s">
+        <v>277</v>
+      </c>
+      <c r="S140">
+        <v>0.24250676691207601</v>
+      </c>
+      <c r="T140">
+        <v>1.5720849184375199E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R141" t="s">
+        <v>278</v>
+      </c>
+      <c r="S141">
+        <v>0.53004641120943696</v>
+      </c>
+      <c r="T141" s="1">
+        <v>1.8760764974867701E-7</v>
+      </c>
+    </row>
+    <row r="142" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R142" t="s">
+        <v>279</v>
+      </c>
+      <c r="S142">
+        <v>0.23548947021843999</v>
+      </c>
+      <c r="T142">
+        <v>2.2152580636731699E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R143" t="s">
+        <v>280</v>
+      </c>
+      <c r="S143">
+        <v>-0.32966027609756399</v>
+      </c>
+      <c r="T143" s="1">
+        <v>6.8588228750610103E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R144" t="s">
+        <v>281</v>
+      </c>
+      <c r="S144">
+        <v>-0.24244610519006399</v>
+      </c>
+      <c r="T144">
+        <v>1.2820615711971401E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R145" t="s">
+        <v>95</v>
+      </c>
+      <c r="S145">
+        <v>-0.205482059117713</v>
+      </c>
+      <c r="T145">
+        <v>0.14050577856174801</v>
+      </c>
+    </row>
+    <row r="146" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R146" t="s">
+        <v>96</v>
+      </c>
+      <c r="S146">
+        <v>0.202597414303856</v>
+      </c>
+      <c r="T146">
+        <v>0.15357461040755099</v>
+      </c>
+    </row>
+    <row r="147" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R147" t="s">
+        <v>97</v>
+      </c>
+      <c r="S147">
+        <v>-0.16591207255017501</v>
+      </c>
+      <c r="T147">
+        <v>0.185175327353573</v>
+      </c>
+    </row>
+    <row r="148" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R148" t="s">
+        <v>98</v>
+      </c>
+      <c r="S148">
+        <v>-0.53272076084449305</v>
+      </c>
+      <c r="T148">
+        <v>3.2134999236441898E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R149" t="s">
+        <v>99</v>
+      </c>
+      <c r="S149">
+        <v>3.1060861785318E-2</v>
+      </c>
+      <c r="T149">
+        <v>0.434456454488437</v>
+      </c>
+    </row>
+    <row r="150" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R150" t="s">
+        <v>100</v>
+      </c>
+      <c r="S150">
+        <v>-0.20216205641862001</v>
+      </c>
+      <c r="T150">
+        <v>5.2710740177156698E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R151" t="s">
+        <v>101</v>
+      </c>
+      <c r="S151">
+        <v>-9.5924756288743696E-2</v>
+      </c>
+      <c r="T151">
+        <v>0.20497564034058799</v>
+      </c>
+    </row>
+    <row r="152" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R152" t="s">
+        <v>102</v>
+      </c>
+      <c r="S152">
+        <v>1.9413343574671501E-2</v>
+      </c>
+      <c r="T152">
+        <v>0.43347083398293601</v>
+      </c>
+    </row>
+    <row r="153" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R153" t="s">
+        <v>103</v>
+      </c>
+      <c r="S153">
+        <v>-0.51356441188212398</v>
+      </c>
+      <c r="T153" s="1">
+        <v>9.7207019896183801E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R154" t="s">
+        <v>104</v>
+      </c>
+      <c r="S154">
+        <v>-6.4610162698523099E-2</v>
+      </c>
+      <c r="T154">
+        <v>0.28187533954147598</v>
+      </c>
+    </row>
+    <row r="155" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R155" t="s">
+        <v>105</v>
+      </c>
+      <c r="S155">
+        <v>-0.36948304493007</v>
+      </c>
+      <c r="T155">
+        <v>2.8068407569680201E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R156" t="s">
+        <v>106</v>
+      </c>
+      <c r="S156">
+        <v>0.114504754423466</v>
+      </c>
+      <c r="T156">
+        <v>0.20144870778187801</v>
+      </c>
+    </row>
+    <row r="157" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R157" t="s">
+        <v>107</v>
+      </c>
+      <c r="S157">
+        <v>-2.2469369161070099E-3</v>
+      </c>
+      <c r="T157">
+        <v>0.49329632835074599</v>
+      </c>
+    </row>
+    <row r="158" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R158" t="s">
+        <v>108</v>
+      </c>
+      <c r="S158">
+        <v>-0.49827981078294498</v>
+      </c>
+      <c r="T158">
+        <v>2.23778760557435E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R159" t="s">
+        <v>109</v>
+      </c>
+      <c r="S159">
+        <v>-9.6984136481524805E-2</v>
+      </c>
+      <c r="T159">
+        <v>0.21660162603542299</v>
+      </c>
+    </row>
+    <row r="160" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R160" t="s">
+        <v>110</v>
+      </c>
+      <c r="S160">
+        <v>-0.15146280360624001</v>
+      </c>
+      <c r="T160">
+        <v>0.19209603754410301</v>
+      </c>
+    </row>
+    <row r="161" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R161" t="s">
+        <v>111</v>
+      </c>
+      <c r="S161">
+        <v>-0.13911247023373899</v>
+      </c>
+      <c r="T161">
+        <v>0.25238947432602599</v>
+      </c>
+    </row>
+    <row r="162" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R162" t="s">
+        <v>112</v>
+      </c>
+      <c r="S162">
+        <v>-0.16791338400934</v>
+      </c>
+      <c r="T162">
+        <v>0.18908172622153999</v>
+      </c>
+    </row>
+    <row r="163" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R163" t="s">
+        <v>113</v>
+      </c>
+      <c r="S163">
+        <v>-0.341892440038783</v>
+      </c>
+      <c r="T163">
+        <v>0.112633726339331</v>
+      </c>
+    </row>
+    <row r="164" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R164" t="s">
+        <v>114</v>
+      </c>
+      <c r="S164">
+        <v>-9.8909407132562702E-2</v>
+      </c>
+      <c r="T164">
+        <v>0.28095510851227201</v>
+      </c>
+    </row>
+    <row r="165" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R165" t="s">
+        <v>115</v>
+      </c>
+      <c r="S165">
+        <v>0.158777868518575</v>
+      </c>
+      <c r="T165">
+        <v>0.22842790440177199</v>
+      </c>
+    </row>
+    <row r="166" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R166" t="s">
+        <v>116</v>
+      </c>
+      <c r="S166">
+        <v>0.13728644841256399</v>
+      </c>
+      <c r="T166">
+        <v>0.25195218203474101</v>
+      </c>
+    </row>
+    <row r="167" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R167" t="s">
+        <v>117</v>
+      </c>
+      <c r="S167">
+        <v>0.181045384195898</v>
+      </c>
+      <c r="T167">
+        <v>0.189534589353688</v>
+      </c>
+    </row>
+    <row r="168" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R168" t="s">
+        <v>118</v>
+      </c>
+      <c r="S168">
+        <v>-0.642640947144412</v>
+      </c>
+      <c r="T168">
+        <v>1.52827367724444E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R169" t="s">
+        <v>119</v>
+      </c>
+      <c r="S169">
+        <v>-0.137348195202734</v>
+      </c>
+      <c r="T169">
+        <v>0.24283136529739799</v>
+      </c>
+    </row>
+    <row r="170" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R170" t="s">
+        <v>120</v>
+      </c>
+      <c r="S170">
+        <v>0.35646874408976598</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R171" t="s">
+        <v>121</v>
+      </c>
+      <c r="S171">
+        <v>0.42869891373229202</v>
+      </c>
+      <c r="T171" s="1">
+        <v>3.7160285959458801E-8</v>
+      </c>
+    </row>
+    <row r="172" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R172" t="s">
+        <v>122</v>
+      </c>
+      <c r="S172">
+        <v>0.43878955484915699</v>
+      </c>
+      <c r="T172" s="1">
+        <v>3.6659564273122598E-13</v>
+      </c>
+    </row>
+    <row r="173" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R173" t="s">
+        <v>123</v>
+      </c>
+      <c r="S173">
+        <v>0.52533797506937496</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R174" t="s">
+        <v>124</v>
+      </c>
+      <c r="S174">
+        <v>0.43103007636774199</v>
+      </c>
+      <c r="T174" s="1">
+        <v>1.7998269541408201E-11</v>
+      </c>
+    </row>
+    <row r="175" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R175" t="s">
+        <v>125</v>
+      </c>
+      <c r="S175">
+        <v>0.81858254225483496</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R176" t="s">
+        <v>126</v>
+      </c>
+      <c r="S176">
+        <v>0.62439436247744695</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R177" t="s">
+        <v>127</v>
+      </c>
+      <c r="S177">
+        <v>0.39035495070305998</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R178" t="s">
+        <v>128</v>
+      </c>
+      <c r="S178">
+        <v>-0.544618498622228</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R179" t="s">
+        <v>129</v>
+      </c>
+      <c r="S179">
+        <v>0.56599842819655499</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R180" t="s">
+        <v>130</v>
+      </c>
+      <c r="S180">
+        <v>-0.35188685524706398</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R181" t="s">
+        <v>131</v>
+      </c>
+      <c r="S181">
+        <v>0.484849858124212</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R182" t="s">
+        <v>132</v>
+      </c>
+      <c r="S182">
+        <v>0.45329072221695099</v>
+      </c>
+      <c r="T182" s="1">
+        <v>5.9123784756920298E-9</v>
+      </c>
+    </row>
+    <row r="183" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R183" t="s">
+        <v>133</v>
+      </c>
+      <c r="S183">
+        <v>-0.56610816708728096</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R184" t="s">
+        <v>134</v>
+      </c>
+      <c r="S184">
+        <v>0.635569393907776</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R185" t="s">
+        <v>135</v>
+      </c>
+      <c r="S185">
+        <v>0.34483764591337801</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R186" t="s">
+        <v>136</v>
+      </c>
+      <c r="S186">
+        <v>0.29652857326223803</v>
+      </c>
+      <c r="T186" s="1">
+        <v>2.2204460492503101E-16</v>
+      </c>
+    </row>
+    <row r="187" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R187" t="s">
+        <v>137</v>
+      </c>
+      <c r="S187">
+        <v>0.416968438135566</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R188" t="s">
+        <v>138</v>
+      </c>
+      <c r="S188">
+        <v>0.60270461213364601</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R189" t="s">
+        <v>139</v>
+      </c>
+      <c r="S189">
+        <v>0.80603374547270601</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R190" t="s">
+        <v>140</v>
+      </c>
+      <c r="S190">
+        <v>0.53361043161003496</v>
+      </c>
+      <c r="T190" s="1">
+        <v>1.31228361510693E-13</v>
+      </c>
+    </row>
+    <row r="191" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R191" t="s">
+        <v>141</v>
+      </c>
+      <c r="S191">
+        <v>-0.35165955911065599</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R192" t="s">
+        <v>142</v>
+      </c>
+      <c r="S192">
+        <v>0.23223303206107901</v>
+      </c>
+      <c r="T192" s="1">
+        <v>2.1826953078285501E-7</v>
+      </c>
+    </row>
+    <row r="193" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R193" t="s">
+        <v>143</v>
+      </c>
+      <c r="S193">
+        <v>0.93213466827658797</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R194" t="s">
+        <v>144</v>
+      </c>
+      <c r="S194">
+        <v>0.89285480214967305</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R195" t="s">
+        <v>145</v>
+      </c>
+      <c r="S195">
+        <v>0.89498771041870795</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R196" t="s">
+        <v>146</v>
+      </c>
+      <c r="S196">
+        <v>0.835527370245707</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R197" t="s">
+        <v>147</v>
+      </c>
+      <c r="S197">
+        <v>0.89886595948216896</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R198" t="s">
+        <v>148</v>
+      </c>
+      <c r="S198">
+        <v>0.50878642905691296</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R199" t="s">
+        <v>149</v>
+      </c>
+      <c r="S199">
+        <v>0.75753003107306904</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R200" t="s">
+        <v>150</v>
+      </c>
+      <c r="S200">
+        <v>0.91778728352826899</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R201" t="s">
+        <v>151</v>
+      </c>
+      <c r="S201">
+        <v>0.82193292789295902</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R202" t="s">
+        <v>152</v>
+      </c>
+      <c r="S202">
+        <v>0.81818105625748705</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R203" t="s">
+        <v>153</v>
+      </c>
+      <c r="S203">
+        <v>0.92956568837136899</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R204" t="s">
+        <v>154</v>
+      </c>
+      <c r="S204">
+        <v>0.86180687161936498</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R205" t="s">
+        <v>155</v>
+      </c>
+      <c r="S205">
+        <v>0.87941581202907304</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R206" t="s">
+        <v>156</v>
+      </c>
+      <c r="S206">
+        <v>0.80594579882672501</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R207" t="s">
+        <v>157</v>
+      </c>
+      <c r="S207">
+        <v>0.76479748408729797</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R208" t="s">
+        <v>158</v>
+      </c>
+      <c r="S208">
+        <v>0.932442042834979</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R209" t="s">
+        <v>159</v>
+      </c>
+      <c r="S209">
+        <v>0.95342635548630295</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R210" t="s">
+        <v>160</v>
+      </c>
+      <c r="S210">
+        <v>0.90602647236927703</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R211" t="s">
+        <v>161</v>
+      </c>
+      <c r="S211">
+        <v>0.79161126679726701</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R212" t="s">
+        <v>162</v>
+      </c>
+      <c r="S212">
+        <v>0.53046878195116298</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R213" t="s">
+        <v>163</v>
+      </c>
+      <c r="S213">
+        <v>0.84028393261407097</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R214" t="s">
+        <v>164</v>
+      </c>
+      <c r="S214">
+        <v>0.92965908392680296</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R215" t="s">
+        <v>165</v>
+      </c>
+      <c r="S215">
+        <v>0.97142943639822299</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:G30">
+    <cfRule type="notContainsText" dxfId="5" priority="5" stopIfTrue="1" operator="notContains" text="~*">
+      <formula>ISERROR(SEARCH("~*",C3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:G47">
+    <cfRule type="notContainsText" dxfId="3" priority="1" stopIfTrue="1" operator="notContains" text="~*">
+      <formula>ISERROR(SEARCH("~*",C34))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:P25">
+    <cfRule type="notContainsText" dxfId="1" priority="3" stopIfTrue="1" operator="notContains" text="~*">
+      <formula>ISERROR(SEARCH("~*",K3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{EC728813-6E81-4ED0-AD1A-9ABF820F9D34}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{F70E34FD-D382-4FAB-9A39-19CFD3815F7E}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C3)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="5" tint="-0.499984740745262"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C3:G30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{CA22CD11-9F7F-4C89-B4CA-5102651DCB97}">
             <xm:f>NOT(ISERROR(SEARCH("-",C34)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17508,6 +23944,18 @@
           </x14:cfRule>
           <xm:sqref>C34:G47</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{5A600E3B-E6BC-45CD-A341-E5B2434716B1}">
+            <xm:f>NOT(ISERROR(SEARCH("-",K3)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="5" tint="-0.499984740745262"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K3:P25</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
